--- a/raw_data/20200818_saline/20200818_Sensor3_Test_83.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_83.xlsx
@@ -1,1339 +1,1755 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86A3AF5-F7A8-4B50-A38A-8F3C33DDB278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>74362.065464</v>
+        <v>74362.065463999999</v>
       </c>
       <c r="B2" s="1">
         <v>20.656129</v>
       </c>
       <c r="C2" s="1">
-        <v>1148.640000</v>
+        <v>1148.6400000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-252.419000</v>
+        <v>-252.41900000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>74372.799914</v>
+        <v>74372.799914000003</v>
       </c>
       <c r="G2" s="1">
-        <v>20.659111</v>
+        <v>20.659110999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>1169.810000</v>
+        <v>1169.81</v>
       </c>
       <c r="I2" s="1">
-        <v>-214.100000</v>
+        <v>-214.1</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>74383.216364</v>
+        <v>74383.216364000007</v>
       </c>
       <c r="L2" s="1">
-        <v>20.662005</v>
+        <v>20.662005000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>1198.210000</v>
+        <v>1198.21</v>
       </c>
       <c r="N2" s="1">
-        <v>-150.049000</v>
+        <v>-150.04900000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>74393.437919</v>
+        <v>74393.437919000004</v>
       </c>
       <c r="Q2" s="1">
-        <v>20.664844</v>
+        <v>20.664843999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>1206.610000</v>
+        <v>1206.6099999999999</v>
       </c>
       <c r="S2" s="1">
-        <v>-128.624000</v>
+        <v>-128.624</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>74403.632690</v>
+        <v>74403.632689999999</v>
       </c>
       <c r="V2" s="1">
         <v>20.667676</v>
       </c>
       <c r="W2" s="1">
-        <v>1214.410000</v>
+        <v>1214.4100000000001</v>
       </c>
       <c r="X2" s="1">
-        <v>-108.268000</v>
+        <v>-108.268</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>74413.615671</v>
+        <v>74413.615671000007</v>
       </c>
       <c r="AA2" s="1">
-        <v>20.670449</v>
+        <v>20.670449000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1222.510000</v>
+        <v>1222.51</v>
       </c>
       <c r="AC2" s="1">
-        <v>-91.256200</v>
+        <v>-91.256200000000007</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>74423.851606</v>
+        <v>74423.851605999997</v>
       </c>
       <c r="AF2" s="1">
         <v>20.673292</v>
       </c>
       <c r="AG2" s="1">
-        <v>1227.410000</v>
+        <v>1227.4100000000001</v>
       </c>
       <c r="AH2" s="1">
-        <v>-86.749900</v>
+        <v>-86.749899999999997</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>74434.255689</v>
+        <v>74434.255688999998</v>
       </c>
       <c r="AK2" s="1">
-        <v>20.676182</v>
+        <v>20.676182000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>1234.770000</v>
+        <v>1234.77</v>
       </c>
       <c r="AM2" s="1">
-        <v>-90.117300</v>
+        <v>-90.1173</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>74444.852715</v>
+        <v>74444.852715000001</v>
       </c>
       <c r="AP2" s="1">
         <v>20.679126</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1242.810000</v>
+        <v>1242.81</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.044000</v>
+        <v>-102.044</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>74455.868364</v>
+        <v>74455.868363999994</v>
       </c>
       <c r="AU2" s="1">
-        <v>20.682186</v>
+        <v>20.682186000000002</v>
       </c>
       <c r="AV2" s="1">
-        <v>1252.920000</v>
+        <v>1252.92</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.402000</v>
+        <v>-121.402</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>74466.977583</v>
       </c>
       <c r="AZ2" s="1">
-        <v>20.685272</v>
+        <v>20.685272000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1261.440000</v>
+        <v>1261.44</v>
       </c>
       <c r="BB2" s="1">
-        <v>-138.940000</v>
+        <v>-138.94</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>74477.974063</v>
+        <v>74477.974063000001</v>
       </c>
       <c r="BE2" s="1">
         <v>20.688326</v>
       </c>
       <c r="BF2" s="1">
-        <v>1301.880000</v>
+        <v>1301.8800000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-221.196000</v>
+        <v>-221.196</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>74489.452480</v>
+        <v>74489.452480000007</v>
       </c>
       <c r="BJ2" s="1">
-        <v>20.691515</v>
+        <v>20.691514999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1372.450000</v>
+        <v>1372.45</v>
       </c>
       <c r="BL2" s="1">
-        <v>-357.938000</v>
+        <v>-357.93799999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>74501.320753</v>
+        <v>74501.320753000007</v>
       </c>
       <c r="BO2" s="1">
-        <v>20.694811</v>
+        <v>20.694811000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1488.590000</v>
+        <v>1488.59</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-579.495000</v>
+        <v>-579.495</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>74511.952034</v>
+        <v>74511.952034000002</v>
       </c>
       <c r="BT2" s="1">
-        <v>20.697764</v>
+        <v>20.697763999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1622.010000</v>
+        <v>1622.01</v>
       </c>
       <c r="BV2" s="1">
-        <v>-828.274000</v>
+        <v>-828.274</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>74522.940372</v>
+        <v>74522.940371999997</v>
       </c>
       <c r="BY2" s="1">
-        <v>20.700817</v>
+        <v>20.700817000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1776.210000</v>
+        <v>1776.21</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1098.000000</v>
+        <v>-1098</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>74534.272965</v>
+        <v>74534.272964999996</v>
       </c>
       <c r="CD2" s="1">
         <v>20.703965</v>
       </c>
       <c r="CE2" s="1">
-        <v>2194.100000</v>
+        <v>2194.1</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1750.060000</v>
+        <v>-1750.06</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>74362.737581</v>
+        <v>74362.737580999994</v>
       </c>
       <c r="B3" s="1">
         <v>20.656316</v>
       </c>
       <c r="C3" s="1">
-        <v>1148.730000</v>
+        <v>1148.73</v>
       </c>
       <c r="D3" s="1">
-        <v>-252.768000</v>
+        <v>-252.768</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>74373.210570</v>
+        <v>74373.210569999996</v>
       </c>
       <c r="G3" s="1">
-        <v>20.659225</v>
+        <v>20.659224999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>1169.830000</v>
+        <v>1169.83</v>
       </c>
       <c r="I3" s="1">
-        <v>-213.497000</v>
+        <v>-213.49700000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>74383.562077</v>
+        <v>74383.562076999995</v>
       </c>
       <c r="L3" s="1">
         <v>20.662101</v>
       </c>
       <c r="M3" s="1">
-        <v>1198.060000</v>
+        <v>1198.06</v>
       </c>
       <c r="N3" s="1">
-        <v>-150.073000</v>
+        <v>-150.07300000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>74393.787102</v>
+        <v>74393.787102000002</v>
       </c>
       <c r="Q3" s="1">
-        <v>20.664941</v>
+        <v>20.664940999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>1206.540000</v>
+        <v>1206.54</v>
       </c>
       <c r="S3" s="1">
-        <v>-128.658000</v>
+        <v>-128.65799999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>74404.011663</v>
+        <v>74404.011662999997</v>
       </c>
       <c r="V3" s="1">
-        <v>20.667781</v>
+        <v>20.667781000000002</v>
       </c>
       <c r="W3" s="1">
-        <v>1214.290000</v>
+        <v>1214.29</v>
       </c>
       <c r="X3" s="1">
-        <v>-108.200000</v>
+        <v>-108.2</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>74414.001060</v>
+        <v>74414.001059999995</v>
       </c>
       <c r="AA3" s="1">
-        <v>20.670556</v>
+        <v>20.670556000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1222.470000</v>
+        <v>1222.47</v>
       </c>
       <c r="AC3" s="1">
-        <v>-91.243700</v>
+        <v>-91.243700000000004</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>74424.272214</v>
+        <v>74424.272213999997</v>
       </c>
       <c r="AF3" s="1">
-        <v>20.673409</v>
+        <v>20.673408999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>1227.490000</v>
+        <v>1227.49</v>
       </c>
       <c r="AH3" s="1">
-        <v>-86.734500</v>
+        <v>-86.734499999999997</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>74434.680760</v>
+        <v>74434.680760000003</v>
       </c>
       <c r="AK3" s="1">
-        <v>20.676300</v>
+        <v>20.676300000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>1234.800000</v>
+        <v>1234.8</v>
       </c>
       <c r="AM3" s="1">
-        <v>-90.125100</v>
+        <v>-90.125100000000003</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>74445.278283</v>
+        <v>74445.278283000007</v>
       </c>
       <c r="AP3" s="1">
-        <v>20.679244</v>
+        <v>20.679244000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1242.840000</v>
+        <v>1242.8399999999999</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.029000</v>
+        <v>-102.029</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>74456.235404</v>
+        <v>74456.235404000006</v>
       </c>
       <c r="AU3" s="1">
         <v>20.682288</v>
       </c>
       <c r="AV3" s="1">
-        <v>1252.890000</v>
+        <v>1252.8900000000001</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.383000</v>
+        <v>-121.383</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>74467.351741</v>
+        <v>74467.351741000006</v>
       </c>
       <c r="AZ3" s="1">
-        <v>20.685375</v>
+        <v>20.685375000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1261.410000</v>
+        <v>1261.4100000000001</v>
       </c>
       <c r="BB3" s="1">
-        <v>-138.934000</v>
+        <v>-138.934</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>74478.335150</v>
+        <v>74478.335149999999</v>
       </c>
       <c r="BE3" s="1">
         <v>20.688426</v>
       </c>
       <c r="BF3" s="1">
-        <v>1301.880000</v>
+        <v>1301.8800000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-221.175000</v>
+        <v>-221.17500000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>74490.228223</v>
+        <v>74490.228222999998</v>
       </c>
       <c r="BJ3" s="1">
-        <v>20.691730</v>
+        <v>20.69173</v>
       </c>
       <c r="BK3" s="1">
-        <v>1372.440000</v>
+        <v>1372.44</v>
       </c>
       <c r="BL3" s="1">
-        <v>-357.933000</v>
+        <v>-357.93299999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>74501.729457</v>
+        <v>74501.729456999994</v>
       </c>
       <c r="BO3" s="1">
-        <v>20.694925</v>
+        <v>20.694925000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1488.580000</v>
+        <v>1488.58</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-579.556000</v>
+        <v>-579.55600000000004</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>74512.375126</v>
+        <v>74512.375125999999</v>
       </c>
       <c r="BT3" s="1">
         <v>20.697882</v>
       </c>
       <c r="BU3" s="1">
-        <v>1622.020000</v>
+        <v>1622.02</v>
       </c>
       <c r="BV3" s="1">
-        <v>-828.432000</v>
+        <v>-828.43200000000002</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>74523.414547</v>
+        <v>74523.414546999993</v>
       </c>
       <c r="BY3" s="1">
         <v>20.700948</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1776.120000</v>
+        <v>1776.12</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1098.170000</v>
+        <v>-1098.17</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>74535.141955</v>
+        <v>74535.141954999999</v>
       </c>
       <c r="CD3" s="1">
-        <v>20.704206</v>
+        <v>20.704205999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>2196.150000</v>
+        <v>2196.15</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1749.200000</v>
+        <v>-1749.2</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>74363.106071</v>
+        <v>74363.106071000002</v>
       </c>
       <c r="B4" s="1">
-        <v>20.656418</v>
+        <v>20.656417999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>1148.720000</v>
+        <v>1148.72</v>
       </c>
       <c r="D4" s="1">
-        <v>-252.641000</v>
+        <v>-252.64099999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>74373.554297</v>
+        <v>74373.554296999995</v>
       </c>
       <c r="G4" s="1">
-        <v>20.659321</v>
+        <v>20.659320999999998</v>
       </c>
       <c r="H4" s="1">
-        <v>1170.210000</v>
+        <v>1170.21</v>
       </c>
       <c r="I4" s="1">
-        <v>-213.248000</v>
+        <v>-213.24799999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>74383.911260</v>
+        <v>74383.911259999993</v>
       </c>
       <c r="L4" s="1">
         <v>20.662198</v>
       </c>
       <c r="M4" s="1">
-        <v>1198.210000</v>
+        <v>1198.21</v>
       </c>
       <c r="N4" s="1">
-        <v>-150.098000</v>
+        <v>-150.09800000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>74394.137774</v>
+        <v>74394.137774000003</v>
       </c>
       <c r="Q4" s="1">
-        <v>20.665038</v>
+        <v>20.665037999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>1206.600000</v>
+        <v>1206.5999999999999</v>
       </c>
       <c r="S4" s="1">
-        <v>-128.614000</v>
+        <v>-128.614</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>74404.441685</v>
+        <v>74404.441684999998</v>
       </c>
       <c r="V4" s="1">
-        <v>20.667900</v>
+        <v>20.667899999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1214.410000</v>
+        <v>1214.4100000000001</v>
       </c>
       <c r="X4" s="1">
-        <v>-108.128000</v>
+        <v>-108.128</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>74414.435067</v>
+        <v>74414.435066999999</v>
       </c>
       <c r="AA4" s="1">
         <v>20.670676</v>
       </c>
       <c r="AB4" s="1">
-        <v>1222.350000</v>
+        <v>1222.3499999999999</v>
       </c>
       <c r="AC4" s="1">
-        <v>-91.263300</v>
+        <v>-91.263300000000001</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>74424.576757</v>
+        <v>74424.576757000003</v>
       </c>
       <c r="AF4" s="1">
-        <v>20.673494</v>
+        <v>20.673494000000002</v>
       </c>
       <c r="AG4" s="1">
-        <v>1227.380000</v>
+        <v>1227.3800000000001</v>
       </c>
       <c r="AH4" s="1">
-        <v>-86.778600</v>
+        <v>-86.778599999999997</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>74435.027992</v>
+        <v>74435.027992000003</v>
       </c>
       <c r="AK4" s="1">
-        <v>20.676397</v>
+        <v>20.676397000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>1234.760000</v>
+        <v>1234.76</v>
       </c>
       <c r="AM4" s="1">
-        <v>-90.135400</v>
+        <v>-90.135400000000004</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>74445.636398</v>
+        <v>74445.636398000002</v>
       </c>
       <c r="AP4" s="1">
-        <v>20.679343</v>
+        <v>20.679342999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1242.840000</v>
+        <v>1242.8399999999999</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.046000</v>
+        <v>-102.04600000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>74456.599963</v>
+        <v>74456.599963000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>20.682389</v>
+        <v>20.682389000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>1252.890000</v>
+        <v>1252.8900000000001</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.415000</v>
+        <v>-121.41500000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>74468.094785</v>
+        <v>74468.094784999994</v>
       </c>
       <c r="AZ4" s="1">
         <v>20.685582</v>
       </c>
       <c r="BA4" s="1">
-        <v>1261.430000</v>
+        <v>1261.43</v>
       </c>
       <c r="BB4" s="1">
-        <v>-138.906000</v>
+        <v>-138.90600000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>74479.059312</v>
+        <v>74479.059311999998</v>
       </c>
       <c r="BE4" s="1">
-        <v>20.688628</v>
+        <v>20.688628000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1301.880000</v>
+        <v>1301.8800000000001</v>
       </c>
       <c r="BG4" s="1">
-        <v>-221.191000</v>
+        <v>-221.191</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>74490.601214</v>
+        <v>74490.601213999995</v>
       </c>
       <c r="BJ4" s="1">
         <v>20.691834</v>
       </c>
       <c r="BK4" s="1">
-        <v>1372.460000</v>
+        <v>1372.46</v>
       </c>
       <c r="BL4" s="1">
-        <v>-357.933000</v>
+        <v>-357.93299999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>74502.148575</v>
+        <v>74502.148574999999</v>
       </c>
       <c r="BO4" s="1">
         <v>20.695041</v>
       </c>
       <c r="BP4" s="1">
-        <v>1488.600000</v>
+        <v>1488.6</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-579.524000</v>
+        <v>-579.524</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>74512.793713</v>
+        <v>74512.793713000006</v>
       </c>
       <c r="BT4" s="1">
-        <v>20.697998</v>
+        <v>20.697997999999998</v>
       </c>
       <c r="BU4" s="1">
-        <v>1621.970000</v>
+        <v>1621.97</v>
       </c>
       <c r="BV4" s="1">
-        <v>-828.710000</v>
+        <v>-828.71</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>74524.169954</v>
+        <v>74524.169953999997</v>
       </c>
       <c r="BY4" s="1">
         <v>20.701158</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1775.970000</v>
+        <v>1775.97</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1098.210000</v>
+        <v>-1098.21</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>74535.375107</v>
       </c>
       <c r="CD4" s="1">
-        <v>20.704271</v>
+        <v>20.704270999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>2195.050000</v>
+        <v>2195.0500000000002</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1747.530000</v>
+        <v>-1747.53</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>74363.446823</v>
+        <v>74363.446823000006</v>
       </c>
       <c r="B5" s="1">
         <v>20.656513</v>
       </c>
       <c r="C5" s="1">
-        <v>1148.440000</v>
+        <v>1148.44</v>
       </c>
       <c r="D5" s="1">
-        <v>-252.618000</v>
+        <v>-252.61799999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>74373.901496</v>
+        <v>74373.901496000006</v>
       </c>
       <c r="G5" s="1">
-        <v>20.659417</v>
+        <v>20.659417000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1169.030000</v>
+        <v>1169.03</v>
       </c>
       <c r="I5" s="1">
-        <v>-213.335000</v>
+        <v>-213.33500000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>74384.335835</v>
+        <v>74384.335835000005</v>
       </c>
       <c r="L5" s="1">
-        <v>20.662316</v>
+        <v>20.662316000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>1198.000000</v>
+        <v>1198</v>
       </c>
       <c r="N5" s="1">
-        <v>-150.233000</v>
+        <v>-150.233</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>74394.563341</v>
+        <v>74394.563341000001</v>
       </c>
       <c r="Q5" s="1">
         <v>20.665156</v>
       </c>
       <c r="R5" s="1">
-        <v>1206.550000</v>
+        <v>1206.55</v>
       </c>
       <c r="S5" s="1">
-        <v>-128.537000</v>
+        <v>-128.53700000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>74404.698592</v>
+        <v>74404.698592000001</v>
       </c>
       <c r="V5" s="1">
-        <v>20.667972</v>
+        <v>20.667971999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>1214.350000</v>
+        <v>1214.3499999999999</v>
       </c>
       <c r="X5" s="1">
-        <v>-108.186000</v>
+        <v>-108.18600000000001</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>74414.714803</v>
+        <v>74414.714802999995</v>
       </c>
       <c r="AA5" s="1">
-        <v>20.670754</v>
+        <v>20.670753999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>1222.500000</v>
+        <v>1222.5</v>
       </c>
       <c r="AC5" s="1">
-        <v>-91.268200</v>
+        <v>-91.268199999999993</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>74424.922005</v>
@@ -1342,694 +1758,694 @@
         <v>20.673589</v>
       </c>
       <c r="AG5" s="1">
-        <v>1227.350000</v>
+        <v>1227.3499999999999</v>
       </c>
       <c r="AH5" s="1">
-        <v>-86.853600</v>
+        <v>-86.8536</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>74435.378135</v>
+        <v>74435.378135000006</v>
       </c>
       <c r="AK5" s="1">
-        <v>20.676494</v>
+        <v>20.676494000000002</v>
       </c>
       <c r="AL5" s="1">
-        <v>1234.760000</v>
+        <v>1234.76</v>
       </c>
       <c r="AM5" s="1">
-        <v>-90.118200</v>
+        <v>-90.118200000000002</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>74445.997979</v>
+        <v>74445.997979000007</v>
       </c>
       <c r="AP5" s="1">
         <v>20.679444</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1242.840000</v>
+        <v>1242.8399999999999</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.034000</v>
+        <v>-102.03400000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>74457.330074</v>
+        <v>74457.330073999998</v>
       </c>
       <c r="AU5" s="1">
         <v>20.682592</v>
       </c>
       <c r="AV5" s="1">
-        <v>1252.910000</v>
+        <v>1252.9100000000001</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.400000</v>
+        <v>-121.4</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>74468.438476</v>
+        <v>74468.438475999996</v>
       </c>
       <c r="AZ5" s="1">
-        <v>20.685677</v>
+        <v>20.685676999999998</v>
       </c>
       <c r="BA5" s="1">
-        <v>1261.410000</v>
+        <v>1261.4100000000001</v>
       </c>
       <c r="BB5" s="1">
-        <v>-138.930000</v>
+        <v>-138.93</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>74479.446685</v>
+        <v>74479.446685000003</v>
       </c>
       <c r="BE5" s="1">
-        <v>20.688735</v>
+        <v>20.688735000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1301.880000</v>
+        <v>1301.8800000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-221.220000</v>
+        <v>-221.22</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>74491.000990</v>
+        <v>74491.00099</v>
       </c>
       <c r="BJ5" s="1">
         <v>20.691945</v>
       </c>
       <c r="BK5" s="1">
-        <v>1372.440000</v>
+        <v>1372.44</v>
       </c>
       <c r="BL5" s="1">
-        <v>-357.950000</v>
+        <v>-357.95</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>74502.855374</v>
+        <v>74502.855374000006</v>
       </c>
       <c r="BO5" s="1">
         <v>20.695238</v>
       </c>
       <c r="BP5" s="1">
-        <v>1488.620000</v>
+        <v>1488.62</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-579.567000</v>
+        <v>-579.56700000000001</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>74513.522832</v>
+        <v>74513.522832000002</v>
       </c>
       <c r="BT5" s="1">
-        <v>20.698201</v>
+        <v>20.698201000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1622.120000</v>
+        <v>1622.12</v>
       </c>
       <c r="BV5" s="1">
-        <v>-828.890000</v>
+        <v>-828.89</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>74524.285028</v>
+        <v>74524.285027999998</v>
       </c>
       <c r="BY5" s="1">
-        <v>20.701190</v>
+        <v>20.70119</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1776.240000</v>
+        <v>1776.24</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1098.090000</v>
+        <v>-1098.0899999999999</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>74535.910756</v>
+        <v>74535.910755999997</v>
       </c>
       <c r="CD5" s="1">
-        <v>20.704420</v>
+        <v>20.704419999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>2194.280000</v>
+        <v>2194.2800000000002</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1749.560000</v>
+        <v>-1749.56</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>74363.802454</v>
+        <v>74363.802454000004</v>
       </c>
       <c r="B6" s="1">
-        <v>20.656612</v>
+        <v>20.656611999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>1148.610000</v>
+        <v>1148.6099999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-252.708000</v>
+        <v>-252.708</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>74374.327561</v>
+        <v>74374.327560999998</v>
       </c>
       <c r="G6" s="1">
-        <v>20.659535</v>
+        <v>20.659535000000002</v>
       </c>
       <c r="H6" s="1">
-        <v>1170.080000</v>
+        <v>1170.08</v>
       </c>
       <c r="I6" s="1">
-        <v>-213.263000</v>
+        <v>-213.26300000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>74384.605659</v>
+        <v>74384.605658999993</v>
       </c>
       <c r="L6" s="1">
-        <v>20.662390</v>
+        <v>20.662389999999998</v>
       </c>
       <c r="M6" s="1">
-        <v>1198.380000</v>
+        <v>1198.3800000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-150.113000</v>
+        <v>-150.113</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>74394.838659</v>
+        <v>74394.838659000001</v>
       </c>
       <c r="Q6" s="1">
-        <v>20.665233</v>
+        <v>20.665233000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>1206.510000</v>
+        <v>1206.51</v>
       </c>
       <c r="S6" s="1">
-        <v>-128.537000</v>
+        <v>-128.53700000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>74405.039360</v>
+        <v>74405.039359999995</v>
       </c>
       <c r="V6" s="1">
         <v>20.668066</v>
       </c>
       <c r="W6" s="1">
-        <v>1214.350000</v>
+        <v>1214.3499999999999</v>
       </c>
       <c r="X6" s="1">
-        <v>-107.973000</v>
+        <v>-107.973</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>74415.064482</v>
+        <v>74415.064482000002</v>
       </c>
       <c r="AA6" s="1">
-        <v>20.670851</v>
+        <v>20.670850999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>1222.640000</v>
+        <v>1222.6400000000001</v>
       </c>
       <c r="AC6" s="1">
-        <v>-91.215800</v>
+        <v>-91.215800000000002</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>74425.264533</v>
+        <v>74425.264532999994</v>
       </c>
       <c r="AF6" s="1">
-        <v>20.673685</v>
+        <v>20.673684999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>1227.430000</v>
+        <v>1227.43</v>
       </c>
       <c r="AH6" s="1">
-        <v>-86.848900</v>
+        <v>-86.8489</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>74436.075510</v>
+        <v>74436.075509999995</v>
       </c>
       <c r="AK6" s="1">
-        <v>20.676688</v>
+        <v>20.676687999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>1234.750000</v>
+        <v>1234.75</v>
       </c>
       <c r="AM6" s="1">
-        <v>-90.102500</v>
+        <v>-90.102500000000006</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>74446.716184</v>
+        <v>74446.716184000004</v>
       </c>
       <c r="AP6" s="1">
-        <v>20.679643</v>
+        <v>20.679642999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1242.840000</v>
+        <v>1242.8399999999999</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.057000</v>
+        <v>-102.057</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>74457.694138</v>
+        <v>74457.694138000006</v>
       </c>
       <c r="AU6" s="1">
         <v>20.682693</v>
       </c>
       <c r="AV6" s="1">
-        <v>1252.900000</v>
+        <v>1252.9000000000001</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.392000</v>
+        <v>-121.392</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>74468.807532</v>
+        <v>74468.807532000006</v>
       </c>
       <c r="AZ6" s="1">
-        <v>20.685780</v>
+        <v>20.685780000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1261.440000</v>
+        <v>1261.44</v>
       </c>
       <c r="BB6" s="1">
-        <v>-138.909000</v>
+        <v>-138.90899999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>74479.809763</v>
+        <v>74479.809762999997</v>
       </c>
       <c r="BE6" s="1">
-        <v>20.688836</v>
+        <v>20.688835999999998</v>
       </c>
       <c r="BF6" s="1">
-        <v>1301.890000</v>
+        <v>1301.8900000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-221.209000</v>
+        <v>-221.209</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>74491.694894</v>
       </c>
       <c r="BJ6" s="1">
-        <v>20.692137</v>
+        <v>20.692136999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1372.430000</v>
+        <v>1372.43</v>
       </c>
       <c r="BL6" s="1">
-        <v>-357.907000</v>
+        <v>-357.90699999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>74502.968462</v>
+        <v>74502.968462000004</v>
       </c>
       <c r="BO6" s="1">
         <v>20.695269</v>
       </c>
       <c r="BP6" s="1">
-        <v>1488.570000</v>
+        <v>1488.57</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-579.530000</v>
+        <v>-579.53</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>74513.639968</v>
+        <v>74513.639968000003</v>
       </c>
       <c r="BT6" s="1">
-        <v>20.698233</v>
+        <v>20.698232999999998</v>
       </c>
       <c r="BU6" s="1">
-        <v>1622.250000</v>
+        <v>1622.25</v>
       </c>
       <c r="BV6" s="1">
-        <v>-828.970000</v>
+        <v>-828.97</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>74524.704650</v>
+        <v>74524.70465</v>
       </c>
       <c r="BY6" s="1">
         <v>20.701307</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1776.060000</v>
+        <v>1776.06</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1098.100000</v>
+        <v>-1098.0999999999999</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>74536.448419</v>
+        <v>74536.448418999993</v>
       </c>
       <c r="CD6" s="1">
-        <v>20.704569</v>
+        <v>20.704568999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>2196.360000</v>
+        <v>2196.36</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1748.570000</v>
+        <v>-1748.57</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>74364.226534</v>
+        <v>74364.226534000001</v>
       </c>
       <c r="B7" s="1">
-        <v>20.656730</v>
+        <v>20.65673</v>
       </c>
       <c r="C7" s="1">
-        <v>1148.770000</v>
+        <v>1148.77</v>
       </c>
       <c r="D7" s="1">
-        <v>-252.550000</v>
+        <v>-252.55</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>74374.595400</v>
+        <v>74374.595400000006</v>
       </c>
       <c r="G7" s="1">
-        <v>20.659610</v>
+        <v>20.659610000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1169.930000</v>
+        <v>1169.93</v>
       </c>
       <c r="I7" s="1">
-        <v>-213.359000</v>
+        <v>-213.35900000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>74384.953363</v>
+        <v>74384.953362999993</v>
       </c>
       <c r="L7" s="1">
-        <v>20.662487</v>
+        <v>20.662486999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>1198.230000</v>
+        <v>1198.23</v>
       </c>
       <c r="N7" s="1">
-        <v>-149.944000</v>
+        <v>-149.94399999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>74395.189292</v>
+        <v>74395.189291999995</v>
       </c>
       <c r="Q7" s="1">
-        <v>20.665330</v>
+        <v>20.665330000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>1206.570000</v>
+        <v>1206.57</v>
       </c>
       <c r="S7" s="1">
-        <v>-128.512000</v>
+        <v>-128.512</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>74405.386543</v>
+        <v>74405.386543000001</v>
       </c>
       <c r="V7" s="1">
         <v>20.668163</v>
       </c>
       <c r="W7" s="1">
-        <v>1214.470000</v>
+        <v>1214.47</v>
       </c>
       <c r="X7" s="1">
-        <v>-108.352000</v>
+        <v>-108.352</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>74415.414658</v>
+        <v>74415.414657999994</v>
       </c>
       <c r="AA7" s="1">
         <v>20.670949</v>
       </c>
       <c r="AB7" s="1">
-        <v>1222.440000</v>
+        <v>1222.44</v>
       </c>
       <c r="AC7" s="1">
-        <v>-91.250000</v>
+        <v>-91.25</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>74425.950675</v>
       </c>
       <c r="AF7" s="1">
-        <v>20.673875</v>
+        <v>20.673874999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>1227.440000</v>
+        <v>1227.44</v>
       </c>
       <c r="AH7" s="1">
-        <v>-86.845600</v>
+        <v>-86.845600000000005</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>74436.422214</v>
+        <v>74436.422214000006</v>
       </c>
       <c r="AK7" s="1">
-        <v>20.676784</v>
+        <v>20.676784000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>1234.730000</v>
+        <v>1234.73</v>
       </c>
       <c r="AM7" s="1">
-        <v>-90.080500</v>
+        <v>-90.080500000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>74447.078265</v>
+        <v>74447.078265000004</v>
       </c>
       <c r="AP7" s="1">
-        <v>20.679744</v>
+        <v>20.679743999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1242.870000</v>
+        <v>1242.8699999999999</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.053000</v>
+        <v>-102.053</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>74458.056217</v>
+        <v>74458.056217000005</v>
       </c>
       <c r="AU7" s="1">
         <v>20.682793</v>
       </c>
       <c r="AV7" s="1">
-        <v>1252.890000</v>
+        <v>1252.8900000000001</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.425000</v>
+        <v>-121.425</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>74469.481562</v>
+        <v>74469.481562000001</v>
       </c>
       <c r="AZ7" s="1">
-        <v>20.685967</v>
+        <v>20.685967000000002</v>
       </c>
       <c r="BA7" s="1">
-        <v>1261.420000</v>
+        <v>1261.42</v>
       </c>
       <c r="BB7" s="1">
-        <v>-138.928000</v>
+        <v>-138.928</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>74480.481836</v>
+        <v>74480.481836000006</v>
       </c>
       <c r="BE7" s="1">
-        <v>20.689023</v>
+        <v>20.689022999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1301.880000</v>
+        <v>1301.8800000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-221.201000</v>
+        <v>-221.20099999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>74492.163116</v>
+        <v>74492.163115999996</v>
       </c>
       <c r="BJ7" s="1">
-        <v>20.692268</v>
+        <v>20.692267999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1372.470000</v>
+        <v>1372.47</v>
       </c>
       <c r="BL7" s="1">
-        <v>-357.970000</v>
+        <v>-357.97</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>74503.387582</v>
+        <v>74503.387581999996</v>
       </c>
       <c r="BO7" s="1">
-        <v>20.695385</v>
+        <v>20.695385000000002</v>
       </c>
       <c r="BP7" s="1">
-        <v>1488.580000</v>
+        <v>1488.58</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-579.528000</v>
+        <v>-579.52800000000002</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>74514.063471</v>
+        <v>74514.063471000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>20.698351</v>
+        <v>20.698350999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1622.470000</v>
+        <v>1622.47</v>
       </c>
       <c r="BV7" s="1">
-        <v>-829.004000</v>
+        <v>-829.00400000000002</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>74525.122780</v>
+        <v>74525.122780000005</v>
       </c>
       <c r="BY7" s="1">
-        <v>20.701423</v>
+        <v>20.701422999999998</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1776.180000</v>
+        <v>1776.18</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1098.230000</v>
+        <v>-1098.23</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>74536.992539</v>
+        <v>74536.992538999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>20.704720</v>
+        <v>20.704719999999998</v>
       </c>
       <c r="CE7" s="1">
-        <v>2193.520000</v>
+        <v>2193.52</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1748.630000</v>
+        <v>-1748.63</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>74364.503810</v>
+        <v>74364.503809999995</v>
       </c>
       <c r="B8" s="1">
-        <v>20.656807</v>
+        <v>20.656807000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>1148.800000</v>
+        <v>1148.8</v>
       </c>
       <c r="D8" s="1">
-        <v>-252.864000</v>
+        <v>-252.864</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>74374.940617</v>
@@ -2038,904 +2454,904 @@
         <v>20.659706</v>
       </c>
       <c r="H8" s="1">
-        <v>1170.070000</v>
+        <v>1170.07</v>
       </c>
       <c r="I8" s="1">
-        <v>-212.753000</v>
+        <v>-212.75299999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>74385.297577</v>
+        <v>74385.297577000005</v>
       </c>
       <c r="L8" s="1">
-        <v>20.662583</v>
+        <v>20.662583000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>1198.390000</v>
+        <v>1198.3900000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-150.109000</v>
+        <v>-150.10900000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>74395.536988</v>
+        <v>74395.536988000007</v>
       </c>
       <c r="Q8" s="1">
-        <v>20.665427</v>
+        <v>20.665427000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>1206.620000</v>
+        <v>1206.6199999999999</v>
       </c>
       <c r="S8" s="1">
-        <v>-128.575000</v>
+        <v>-128.57499999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>74406.075486</v>
+        <v>74406.075486000002</v>
       </c>
       <c r="V8" s="1">
-        <v>20.668354</v>
+        <v>20.668354000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>1214.420000</v>
+        <v>1214.42</v>
       </c>
       <c r="X8" s="1">
-        <v>-108.221000</v>
+        <v>-108.221</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>74416.111042</v>
+        <v>74416.111042000004</v>
       </c>
       <c r="AA8" s="1">
         <v>20.671142</v>
       </c>
       <c r="AB8" s="1">
-        <v>1222.490000</v>
+        <v>1222.49</v>
       </c>
       <c r="AC8" s="1">
-        <v>-91.294600</v>
+        <v>-91.294600000000003</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>74426.295891</v>
+        <v>74426.295891000002</v>
       </c>
       <c r="AF8" s="1">
-        <v>20.673971</v>
+        <v>20.673971000000002</v>
       </c>
       <c r="AG8" s="1">
-        <v>1227.400000</v>
+        <v>1227.4000000000001</v>
       </c>
       <c r="AH8" s="1">
-        <v>-86.799600</v>
+        <v>-86.799599999999998</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>74436.767925</v>
+        <v>74436.767924999993</v>
       </c>
       <c r="AK8" s="1">
-        <v>20.676880</v>
+        <v>20.676880000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>1234.750000</v>
+        <v>1234.75</v>
       </c>
       <c r="AM8" s="1">
-        <v>-90.090600</v>
+        <v>-90.090599999999995</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>74447.440839</v>
+        <v>74447.440839000003</v>
       </c>
       <c r="AP8" s="1">
         <v>20.679845</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1242.830000</v>
+        <v>1242.83</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.050000</v>
+        <v>-102.05</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>74458.737753</v>
+        <v>74458.737752999994</v>
       </c>
       <c r="AU8" s="1">
         <v>20.682983</v>
       </c>
       <c r="AV8" s="1">
-        <v>1252.890000</v>
+        <v>1252.8900000000001</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.392000</v>
+        <v>-121.392</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>74469.883322</v>
+        <v>74469.883321999994</v>
       </c>
       <c r="AZ8" s="1">
-        <v>20.686079</v>
+        <v>20.686078999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1261.440000</v>
+        <v>1261.44</v>
       </c>
       <c r="BB8" s="1">
-        <v>-138.917000</v>
+        <v>-138.917</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>74480.923771</v>
+        <v>74480.923771000002</v>
       </c>
       <c r="BE8" s="1">
         <v>20.689145</v>
       </c>
       <c r="BF8" s="1">
-        <v>1301.890000</v>
+        <v>1301.8900000000001</v>
       </c>
       <c r="BG8" s="1">
-        <v>-221.231000</v>
+        <v>-221.23099999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>74492.537596</v>
+        <v>74492.537595999995</v>
       </c>
       <c r="BJ8" s="1">
-        <v>20.692372</v>
+        <v>20.692371999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1372.430000</v>
+        <v>1372.43</v>
       </c>
       <c r="BL8" s="1">
-        <v>-357.953000</v>
+        <v>-357.95299999999997</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>74503.784878</v>
+        <v>74503.784878000006</v>
       </c>
       <c r="BO8" s="1">
-        <v>20.695496</v>
+        <v>20.695495999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1488.590000</v>
+        <v>1488.59</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-579.539000</v>
+        <v>-579.53899999999999</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>74514.475151</v>
+        <v>74514.475151000006</v>
       </c>
       <c r="BT8" s="1">
-        <v>20.698465</v>
+        <v>20.698464999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1622.670000</v>
+        <v>1622.67</v>
       </c>
       <c r="BV8" s="1">
-        <v>-828.862000</v>
+        <v>-828.86199999999997</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>74525.569697</v>
+        <v>74525.569696999999</v>
       </c>
       <c r="BY8" s="1">
-        <v>20.701547</v>
+        <v>20.701547000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1776.100000</v>
+        <v>1776.1</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1098.150000</v>
+        <v>-1098.1500000000001</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>74537.528736</v>
+        <v>74537.528735999993</v>
       </c>
       <c r="CD8" s="1">
-        <v>20.704869</v>
+        <v>20.704868999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>2195.940000</v>
+        <v>2195.94</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1749.930000</v>
+        <v>-1749.93</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>74364.844085</v>
+        <v>74364.844085000004</v>
       </c>
       <c r="B9" s="1">
-        <v>20.656901</v>
+        <v>20.656901000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>1148.900000</v>
+        <v>1148.9000000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>-252.623000</v>
+        <v>-252.62299999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>74375.287320</v>
+        <v>74375.287320000003</v>
       </c>
       <c r="G9" s="1">
-        <v>20.659802</v>
+        <v>20.659801999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>1170.050000</v>
+        <v>1170.05</v>
       </c>
       <c r="I9" s="1">
-        <v>-213.333000</v>
+        <v>-213.333</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>74385.992473</v>
+        <v>74385.992473000006</v>
       </c>
       <c r="L9" s="1">
-        <v>20.662776</v>
+        <v>20.662776000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>1198.170000</v>
+        <v>1198.17</v>
       </c>
       <c r="N9" s="1">
-        <v>-150.083000</v>
+        <v>-150.083</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>74396.234365</v>
+        <v>74396.234364999997</v>
       </c>
       <c r="Q9" s="1">
-        <v>20.665621</v>
+        <v>20.665621000000002</v>
       </c>
       <c r="R9" s="1">
-        <v>1206.500000</v>
+        <v>1206.5</v>
       </c>
       <c r="S9" s="1">
-        <v>-128.627000</v>
+        <v>-128.62700000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>74406.414255</v>
+        <v>74406.414254999996</v>
       </c>
       <c r="V9" s="1">
-        <v>20.668448</v>
+        <v>20.668448000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>1214.460000</v>
+        <v>1214.46</v>
       </c>
       <c r="X9" s="1">
-        <v>-107.960000</v>
+        <v>-107.96</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>74416.456289</v>
+        <v>74416.456288999994</v>
       </c>
       <c r="AA9" s="1">
-        <v>20.671238</v>
+        <v>20.671237999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>1222.570000</v>
+        <v>1222.57</v>
       </c>
       <c r="AC9" s="1">
-        <v>-91.201000</v>
+        <v>-91.200999999999993</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>74426.640643</v>
+        <v>74426.640643000006</v>
       </c>
       <c r="AF9" s="1">
-        <v>20.674067</v>
+        <v>20.674067000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>1227.360000</v>
+        <v>1227.3599999999999</v>
       </c>
       <c r="AH9" s="1">
-        <v>-86.830200</v>
+        <v>-86.830200000000005</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>74437.440036</v>
       </c>
       <c r="AK9" s="1">
-        <v>20.677067</v>
+        <v>20.677067000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>1234.760000</v>
+        <v>1234.76</v>
       </c>
       <c r="AM9" s="1">
-        <v>-90.108900</v>
+        <v>-90.108900000000006</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>74448.118376</v>
+        <v>74448.118375999999</v>
       </c>
       <c r="AP9" s="1">
-        <v>20.680033</v>
+        <v>20.680033000000002</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1242.840000</v>
+        <v>1242.8399999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.046000</v>
+        <v>-102.04600000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>74459.153367</v>
+        <v>74459.153367000006</v>
       </c>
       <c r="AU9" s="1">
-        <v>20.683098</v>
+        <v>20.683098000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1252.920000</v>
+        <v>1252.92</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.382000</v>
+        <v>-121.38200000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>74470.265737</v>
+        <v>74470.265736999994</v>
       </c>
       <c r="AZ9" s="1">
-        <v>20.686185</v>
+        <v>20.686184999999998</v>
       </c>
       <c r="BA9" s="1">
-        <v>1261.430000</v>
+        <v>1261.43</v>
       </c>
       <c r="BB9" s="1">
-        <v>-138.943000</v>
+        <v>-138.94300000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>74481.282379</v>
+        <v>74481.282378999997</v>
       </c>
       <c r="BE9" s="1">
         <v>20.689245</v>
       </c>
       <c r="BF9" s="1">
-        <v>1301.890000</v>
+        <v>1301.8900000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-221.197000</v>
+        <v>-221.197</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>74492.942332</v>
+        <v>74492.942332000006</v>
       </c>
       <c r="BJ9" s="1">
         <v>20.692484</v>
       </c>
       <c r="BK9" s="1">
-        <v>1372.430000</v>
+        <v>1372.43</v>
       </c>
       <c r="BL9" s="1">
-        <v>-357.949000</v>
+        <v>-357.94900000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>74504.212461</v>
+        <v>74504.212461000003</v>
       </c>
       <c r="BO9" s="1">
         <v>20.695615</v>
       </c>
       <c r="BP9" s="1">
-        <v>1488.550000</v>
+        <v>1488.55</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-579.539000</v>
+        <v>-579.53899999999999</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>74514.976606</v>
+        <v>74514.976605999997</v>
       </c>
       <c r="BT9" s="1">
-        <v>20.698605</v>
+        <v>20.698605000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1622.740000</v>
+        <v>1622.74</v>
       </c>
       <c r="BV9" s="1">
-        <v>-828.751000</v>
+        <v>-828.75099999999998</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>74525.992288</v>
+        <v>74525.992287999994</v>
       </c>
       <c r="BY9" s="1">
-        <v>20.701665</v>
+        <v>20.701664999999998</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1776.170000</v>
+        <v>1776.17</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1098.110000</v>
+        <v>-1098.1099999999999</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>74538.067863</v>
+        <v>74538.067863000004</v>
       </c>
       <c r="CD9" s="1">
         <v>20.705019</v>
       </c>
       <c r="CE9" s="1">
-        <v>2194.230000</v>
+        <v>2194.23</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1747.650000</v>
+        <v>-1747.65</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>74365.186640</v>
+        <v>74365.18664</v>
       </c>
       <c r="B10" s="1">
-        <v>20.656996</v>
+        <v>20.656995999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>1148.780000</v>
+        <v>1148.78</v>
       </c>
       <c r="D10" s="1">
-        <v>-252.555000</v>
+        <v>-252.55500000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>74375.982227</v>
       </c>
       <c r="G10" s="1">
-        <v>20.659995</v>
+        <v>20.659994999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>1170.410000</v>
+        <v>1170.4100000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>-212.408000</v>
+        <v>-212.40799999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>74386.343179</v>
+        <v>74386.343179000003</v>
       </c>
       <c r="L10" s="1">
-        <v>20.662873</v>
+        <v>20.662873000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>1198.010000</v>
+        <v>1198.01</v>
       </c>
       <c r="N10" s="1">
-        <v>-150.101000</v>
+        <v>-150.101</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>74396.583650</v>
+        <v>74396.58365</v>
       </c>
       <c r="Q10" s="1">
-        <v>20.665718</v>
+        <v>20.665717999999998</v>
       </c>
       <c r="R10" s="1">
-        <v>1206.510000</v>
+        <v>1206.51</v>
       </c>
       <c r="S10" s="1">
-        <v>-128.632000</v>
+        <v>-128.63200000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>74406.764957</v>
+        <v>74406.764957000007</v>
       </c>
       <c r="V10" s="1">
-        <v>20.668546</v>
+        <v>20.668545999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>1214.560000</v>
+        <v>1214.56</v>
       </c>
       <c r="X10" s="1">
-        <v>-108.112000</v>
+        <v>-108.11199999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>74417.115938</v>
+        <v>74417.115938000003</v>
       </c>
       <c r="AA10" s="1">
-        <v>20.671421</v>
+        <v>20.671420999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>1222.440000</v>
+        <v>1222.44</v>
       </c>
       <c r="AC10" s="1">
-        <v>-91.217500</v>
+        <v>-91.217500000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>74427.305747</v>
+        <v>74427.305747000006</v>
       </c>
       <c r="AF10" s="1">
-        <v>20.674252</v>
+        <v>20.674251999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1227.390000</v>
+        <v>1227.3900000000001</v>
       </c>
       <c r="AH10" s="1">
-        <v>-86.804700</v>
+        <v>-86.804699999999997</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>74437.816966</v>
+        <v>74437.816965999999</v>
       </c>
       <c r="AK10" s="1">
-        <v>20.677171</v>
+        <v>20.677171000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>1234.770000</v>
+        <v>1234.77</v>
       </c>
       <c r="AM10" s="1">
-        <v>-90.117200</v>
+        <v>-90.117199999999997</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>74448.541958</v>
+        <v>74448.541958000002</v>
       </c>
       <c r="AP10" s="1">
-        <v>20.680151</v>
+        <v>20.680150999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1242.830000</v>
+        <v>1242.83</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.020000</v>
+        <v>-102.02</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>74459.516440</v>
+        <v>74459.516440000007</v>
       </c>
       <c r="AU10" s="1">
-        <v>20.683199</v>
+        <v>20.683198999999998</v>
       </c>
       <c r="AV10" s="1">
-        <v>1252.890000</v>
+        <v>1252.8900000000001</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.396000</v>
+        <v>-121.396</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>74470.625338</v>
+        <v>74470.625337999998</v>
       </c>
       <c r="AZ10" s="1">
-        <v>20.686285</v>
+        <v>20.686285000000002</v>
       </c>
       <c r="BA10" s="1">
-        <v>1261.420000</v>
+        <v>1261.42</v>
       </c>
       <c r="BB10" s="1">
-        <v>-138.914000</v>
+        <v>-138.91399999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>74481.642815</v>
+        <v>74481.642814999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>20.689345</v>
+        <v>20.689344999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1301.870000</v>
+        <v>1301.8699999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-221.198000</v>
+        <v>-221.19800000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>74493.364427</v>
+        <v>74493.364426999993</v>
       </c>
       <c r="BJ10" s="1">
         <v>20.692601</v>
       </c>
       <c r="BK10" s="1">
-        <v>1372.420000</v>
+        <v>1372.42</v>
       </c>
       <c r="BL10" s="1">
-        <v>-357.951000</v>
+        <v>-357.95100000000002</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>74504.605756</v>
+        <v>74504.605756000004</v>
       </c>
       <c r="BO10" s="1">
-        <v>20.695724</v>
+        <v>20.695723999999998</v>
       </c>
       <c r="BP10" s="1">
-        <v>1488.600000</v>
+        <v>1488.6</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-579.539000</v>
+        <v>-579.53899999999999</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>74515.306446</v>
+        <v>74515.306446000002</v>
       </c>
       <c r="BT10" s="1">
-        <v>20.698696</v>
+        <v>20.698696000000002</v>
       </c>
       <c r="BU10" s="1">
-        <v>1622.990000</v>
+        <v>1622.99</v>
       </c>
       <c r="BV10" s="1">
-        <v>-828.613000</v>
+        <v>-828.61300000000006</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>74526.413874</v>
+        <v>74526.413874000005</v>
       </c>
       <c r="BY10" s="1">
-        <v>20.701782</v>
+        <v>20.701782000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1775.990000</v>
+        <v>1775.99</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1098.040000</v>
+        <v>-1098.04</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>74538.611968</v>
+        <v>74538.611967999997</v>
       </c>
       <c r="CD10" s="1">
-        <v>20.705170</v>
+        <v>20.705169999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>2194.890000</v>
+        <v>2194.89</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1750.150000</v>
+        <v>-1750.15</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>74365.867795</v>
+        <v>74365.867794999998</v>
       </c>
       <c r="B11" s="1">
-        <v>20.657185</v>
+        <v>20.657184999999998</v>
       </c>
       <c r="C11" s="1">
-        <v>1148.790000</v>
+        <v>1148.79</v>
       </c>
       <c r="D11" s="1">
-        <v>-252.656000</v>
+        <v>-252.65600000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>74376.333381</v>
+        <v>74376.333381000004</v>
       </c>
       <c r="G11" s="1">
         <v>20.660093</v>
       </c>
       <c r="H11" s="1">
-        <v>1169.910000</v>
+        <v>1169.9100000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>-212.102000</v>
+        <v>-212.102</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>74386.687864</v>
+        <v>74386.687864000007</v>
       </c>
       <c r="L11" s="1">
         <v>20.662969</v>
       </c>
       <c r="M11" s="1">
-        <v>1198.350000</v>
+        <v>1198.3499999999999</v>
       </c>
       <c r="N11" s="1">
-        <v>-149.994000</v>
+        <v>-149.994</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>74396.929754</v>
+        <v>74396.929753999997</v>
       </c>
       <c r="Q11" s="1">
-        <v>20.665814</v>
+        <v>20.665814000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>1206.470000</v>
+        <v>1206.47</v>
       </c>
       <c r="S11" s="1">
-        <v>-128.583000</v>
+        <v>-128.583</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>74407.430060</v>
+        <v>74407.430059999999</v>
       </c>
       <c r="V11" s="1">
-        <v>20.668731</v>
+        <v>20.668731000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>1214.420000</v>
+        <v>1214.42</v>
       </c>
       <c r="X11" s="1">
-        <v>-108.101000</v>
+        <v>-108.101</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>74417.500368</v>
+        <v>74417.500367999994</v>
       </c>
       <c r="AA11" s="1">
-        <v>20.671528</v>
+        <v>20.671527999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1222.580000</v>
+        <v>1222.58</v>
       </c>
       <c r="AC11" s="1">
-        <v>-91.231500</v>
+        <v>-91.231499999999997</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>74427.671336</v>
+        <v>74427.671335999999</v>
       </c>
       <c r="AF11" s="1">
         <v>20.674353</v>
       </c>
       <c r="AG11" s="1">
-        <v>1227.350000</v>
+        <v>1227.3499999999999</v>
       </c>
       <c r="AH11" s="1">
-        <v>-86.818100</v>
+        <v>-86.818100000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>74438.162676</v>
+        <v>74438.162676000007</v>
       </c>
       <c r="AK11" s="1">
-        <v>20.677267</v>
+        <v>20.677267000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1234.780000</v>
+        <v>1234.78</v>
       </c>
       <c r="AM11" s="1">
-        <v>-90.103200</v>
+        <v>-90.103200000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>74448.902055</v>
+        <v>74448.902054999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>20.680251</v>
+        <v>20.680250999999998</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1242.850000</v>
+        <v>1242.8499999999999</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.007000</v>
+        <v>-102.00700000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>74459.881991</v>
+        <v>74459.881991000002</v>
       </c>
       <c r="AU11" s="1">
         <v>20.683301</v>
       </c>
       <c r="AV11" s="1">
-        <v>1252.920000</v>
+        <v>1252.92</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.388000</v>
+        <v>-121.38800000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>74471.054376</v>
@@ -2944,1782 +3360,1782 @@
         <v>20.686404</v>
       </c>
       <c r="BA11" s="1">
-        <v>1261.440000</v>
+        <v>1261.44</v>
       </c>
       <c r="BB11" s="1">
-        <v>-138.919000</v>
+        <v>-138.91900000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>74482.369113</v>
+        <v>74482.369112999993</v>
       </c>
       <c r="BE11" s="1">
-        <v>20.689547</v>
+        <v>20.689547000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1301.890000</v>
+        <v>1301.8900000000001</v>
       </c>
       <c r="BG11" s="1">
-        <v>-221.204000</v>
+        <v>-221.20400000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>74493.692295</v>
+        <v>74493.692295000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>20.692692</v>
+        <v>20.692692000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1372.420000</v>
+        <v>1372.42</v>
       </c>
       <c r="BL11" s="1">
-        <v>-357.934000</v>
+        <v>-357.93400000000003</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>74505.028348</v>
+        <v>74505.028348000007</v>
       </c>
       <c r="BO11" s="1">
-        <v>20.695841</v>
+        <v>20.695841000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1488.570000</v>
+        <v>1488.57</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-579.548000</v>
+        <v>-579.548</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>74515.724110</v>
+        <v>74515.724109999996</v>
       </c>
       <c r="BT11" s="1">
         <v>20.698812</v>
       </c>
       <c r="BU11" s="1">
-        <v>1622.850000</v>
+        <v>1622.85</v>
       </c>
       <c r="BV11" s="1">
-        <v>-828.219000</v>
+        <v>-828.21900000000005</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>74526.863234</v>
+        <v>74526.863234000004</v>
       </c>
       <c r="BY11" s="1">
-        <v>20.701906</v>
+        <v>20.701906000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1776.170000</v>
+        <v>1776.17</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1098.210000</v>
+        <v>-1098.21</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>74539.148158</v>
+        <v>74539.148157999996</v>
       </c>
       <c r="CD11" s="1">
-        <v>20.705319</v>
+        <v>20.705318999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>2195.650000</v>
+        <v>2195.65</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1748.170000</v>
+        <v>-1748.17</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>74366.254179</v>
+        <v>74366.254178999996</v>
       </c>
       <c r="B12" s="1">
-        <v>20.657293</v>
+        <v>20.657292999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>1148.650000</v>
+        <v>1148.6500000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-252.529000</v>
+        <v>-252.529</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>74376.676613</v>
+        <v>74376.676613000003</v>
       </c>
       <c r="G12" s="1">
-        <v>20.660188</v>
+        <v>20.660188000000002</v>
       </c>
       <c r="H12" s="1">
-        <v>1170.200000</v>
+        <v>1170.2</v>
       </c>
       <c r="I12" s="1">
-        <v>-212.826000</v>
+        <v>-212.82599999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>74387.346551</v>
+        <v>74387.346550999995</v>
       </c>
       <c r="L12" s="1">
         <v>20.663152</v>
       </c>
       <c r="M12" s="1">
-        <v>1198.420000</v>
+        <v>1198.42</v>
       </c>
       <c r="N12" s="1">
-        <v>-149.848000</v>
+        <v>-149.84800000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>74397.593899</v>
       </c>
       <c r="Q12" s="1">
-        <v>20.665998</v>
+        <v>20.665997999999998</v>
       </c>
       <c r="R12" s="1">
-        <v>1206.580000</v>
+        <v>1206.58</v>
       </c>
       <c r="S12" s="1">
-        <v>-128.560000</v>
+        <v>-128.56</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>74407.794620</v>
+        <v>74407.794620000001</v>
       </c>
       <c r="V12" s="1">
-        <v>20.668832</v>
+        <v>20.668831999999998</v>
       </c>
       <c r="W12" s="1">
-        <v>1214.400000</v>
+        <v>1214.4000000000001</v>
       </c>
       <c r="X12" s="1">
-        <v>-108.034000</v>
+        <v>-108.03400000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>74417.849518</v>
+        <v>74417.849518000003</v>
       </c>
       <c r="AA12" s="1">
-        <v>20.671625</v>
+        <v>20.671624999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>1222.480000</v>
+        <v>1222.48</v>
       </c>
       <c r="AC12" s="1">
-        <v>-91.292500</v>
+        <v>-91.292500000000004</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>74428.016017</v>
+        <v>74428.016017000002</v>
       </c>
       <c r="AF12" s="1">
-        <v>20.674449</v>
+        <v>20.674448999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>1227.440000</v>
+        <v>1227.44</v>
       </c>
       <c r="AH12" s="1">
-        <v>-86.800800</v>
+        <v>-86.800799999999995</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>74438.518343</v>
+        <v>74438.518343000003</v>
       </c>
       <c r="AK12" s="1">
-        <v>20.677366</v>
+        <v>20.677365999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1234.760000</v>
+        <v>1234.76</v>
       </c>
       <c r="AM12" s="1">
-        <v>-90.091100</v>
+        <v>-90.091099999999997</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>74449.478405</v>
+        <v>74449.478405000002</v>
       </c>
       <c r="AP12" s="1">
-        <v>20.680411</v>
+        <v>20.680410999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1242.830000</v>
+        <v>1242.83</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.013000</v>
+        <v>-102.01300000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>74460.310548</v>
+        <v>74460.310547999994</v>
       </c>
       <c r="AU12" s="1">
-        <v>20.683420</v>
+        <v>20.683420000000002</v>
       </c>
       <c r="AV12" s="1">
-        <v>1252.920000</v>
+        <v>1252.92</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.408000</v>
+        <v>-121.408</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>74471.343048</v>
+        <v>74471.343047999995</v>
       </c>
       <c r="AZ12" s="1">
         <v>20.686484</v>
       </c>
       <c r="BA12" s="1">
-        <v>1261.430000</v>
+        <v>1261.43</v>
       </c>
       <c r="BB12" s="1">
-        <v>-138.952000</v>
+        <v>-138.952</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>74482.747561</v>
+        <v>74482.747560999996</v>
       </c>
       <c r="BE12" s="1">
-        <v>20.689652</v>
+        <v>20.689651999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1301.890000</v>
+        <v>1301.8900000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-221.203000</v>
+        <v>-221.203</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>74494.067259</v>
+        <v>74494.067259000003</v>
       </c>
       <c r="BJ12" s="1">
-        <v>20.692796</v>
+        <v>20.692796000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1372.430000</v>
+        <v>1372.43</v>
       </c>
       <c r="BL12" s="1">
-        <v>-357.941000</v>
+        <v>-357.94099999999997</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>74505.422668</v>
+        <v>74505.422667999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>20.695951</v>
+        <v>20.695951000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1488.600000</v>
+        <v>1488.6</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-579.567000</v>
+        <v>-579.56700000000001</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>74516.552396</v>
+        <v>74516.552395999999</v>
       </c>
       <c r="BT12" s="1">
-        <v>20.699042</v>
+        <v>20.699041999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1622.700000</v>
+        <v>1622.7</v>
       </c>
       <c r="BV12" s="1">
-        <v>-828.064000</v>
+        <v>-828.06399999999996</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>74527.295742</v>
+        <v>74527.295742000002</v>
       </c>
       <c r="BY12" s="1">
-        <v>20.702027</v>
+        <v>20.702027000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1776.200000</v>
+        <v>1776.2</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1098.150000</v>
+        <v>-1098.1500000000001</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>74539.690765</v>
+        <v>74539.690765000007</v>
       </c>
       <c r="CD12" s="1">
-        <v>20.705470</v>
+        <v>20.705469999999998</v>
       </c>
       <c r="CE12" s="1">
-        <v>2193.760000</v>
+        <v>2193.7600000000002</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1749.250000</v>
+        <v>-1749.25</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>74366.898513</v>
+        <v>74366.898512999993</v>
       </c>
       <c r="B13" s="1">
-        <v>20.657472</v>
+        <v>20.657471999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>1148.520000</v>
+        <v>1148.52</v>
       </c>
       <c r="D13" s="1">
-        <v>-252.738000</v>
+        <v>-252.738</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>74377.340789</v>
+        <v>74377.340788999994</v>
       </c>
       <c r="G13" s="1">
-        <v>20.660372</v>
+        <v>20.660371999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>1169.360000</v>
+        <v>1169.3599999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-212.944000</v>
+        <v>-212.94399999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>74387.727017</v>
+        <v>74387.727016999997</v>
       </c>
       <c r="L13" s="1">
-        <v>20.663258</v>
+        <v>20.663257999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>1198.250000</v>
+        <v>1198.25</v>
       </c>
       <c r="N13" s="1">
-        <v>-150.254000</v>
+        <v>-150.25399999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>74397.976810</v>
+        <v>74397.976809999993</v>
       </c>
       <c r="Q13" s="1">
-        <v>20.666105</v>
+        <v>20.666105000000002</v>
       </c>
       <c r="R13" s="1">
-        <v>1206.580000</v>
+        <v>1206.58</v>
       </c>
       <c r="S13" s="1">
-        <v>-128.704000</v>
+        <v>-128.70400000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>74408.138379</v>
+        <v>74408.138378999996</v>
       </c>
       <c r="V13" s="1">
         <v>20.668927</v>
       </c>
       <c r="W13" s="1">
-        <v>1214.480000</v>
+        <v>1214.48</v>
       </c>
       <c r="X13" s="1">
-        <v>-108.079000</v>
+        <v>-108.07899999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>74418.199231</v>
+        <v>74418.199231000006</v>
       </c>
       <c r="AA13" s="1">
-        <v>20.671722</v>
+        <v>20.671721999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>1222.370000</v>
+        <v>1222.3699999999999</v>
       </c>
       <c r="AC13" s="1">
-        <v>-91.259000</v>
+        <v>-91.259</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>74428.358753</v>
+        <v>74428.358752999993</v>
       </c>
       <c r="AF13" s="1">
-        <v>20.674544</v>
+        <v>20.674544000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1227.430000</v>
+        <v>1227.43</v>
       </c>
       <c r="AH13" s="1">
-        <v>-86.751900</v>
+        <v>-86.751900000000006</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>74438.944868</v>
+        <v>74438.944868000006</v>
       </c>
       <c r="AK13" s="1">
-        <v>20.677485</v>
+        <v>20.677485000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>1234.750000</v>
+        <v>1234.75</v>
       </c>
       <c r="AM13" s="1">
-        <v>-90.113500</v>
+        <v>-90.113500000000002</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>74449.625221</v>
+        <v>74449.625220999995</v>
       </c>
       <c r="AP13" s="1">
-        <v>20.680451</v>
+        <v>20.680451000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1242.860000</v>
+        <v>1242.8599999999999</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.033000</v>
+        <v>-102.033</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>74460.611110</v>
+        <v>74460.611109999998</v>
       </c>
       <c r="AU13" s="1">
-        <v>20.683503</v>
+        <v>20.683503000000002</v>
       </c>
       <c r="AV13" s="1">
-        <v>1252.910000</v>
+        <v>1252.9100000000001</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.393000</v>
+        <v>-121.393</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>74471.702151</v>
+        <v>74471.702151000005</v>
       </c>
       <c r="AZ13" s="1">
         <v>20.686584</v>
       </c>
       <c r="BA13" s="1">
-        <v>1261.430000</v>
+        <v>1261.43</v>
       </c>
       <c r="BB13" s="1">
-        <v>-138.916000</v>
+        <v>-138.916</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>74483.108152</v>
+        <v>74483.108152000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>20.689752</v>
+        <v>20.689751999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1301.880000</v>
+        <v>1301.8800000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-221.191000</v>
+        <v>-221.191</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>74494.443721</v>
+        <v>74494.443721000003</v>
       </c>
       <c r="BJ13" s="1">
-        <v>20.692901</v>
+        <v>20.692900999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1372.430000</v>
+        <v>1372.43</v>
       </c>
       <c r="BL13" s="1">
-        <v>-357.963000</v>
+        <v>-357.96300000000002</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>74505.862618</v>
+        <v>74505.862617999999</v>
       </c>
       <c r="BO13" s="1">
-        <v>20.696073</v>
+        <v>20.696072999999998</v>
       </c>
       <c r="BP13" s="1">
-        <v>1488.560000</v>
+        <v>1488.56</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-579.590000</v>
+        <v>-579.59</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>74516.986891</v>
+        <v>74516.986890999993</v>
       </c>
       <c r="BT13" s="1">
-        <v>20.699163</v>
+        <v>20.699162999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1622.430000</v>
+        <v>1622.43</v>
       </c>
       <c r="BV13" s="1">
-        <v>-828.085000</v>
+        <v>-828.08500000000004</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>74527.715853</v>
+        <v>74527.715853000002</v>
       </c>
       <c r="BY13" s="1">
         <v>20.702143</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1776.050000</v>
+        <v>1776.05</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1098.260000</v>
+        <v>-1098.26</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>74540.228964</v>
+        <v>74540.228963999994</v>
       </c>
       <c r="CD13" s="1">
-        <v>20.705619</v>
+        <v>20.705618999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>2196.370000</v>
+        <v>2196.37</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1749.670000</v>
+        <v>-1749.67</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>74367.262049</v>
+        <v>74367.262048999997</v>
       </c>
       <c r="B14" s="1">
-        <v>20.657573</v>
+        <v>20.657572999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>1148.580000</v>
+        <v>1148.58</v>
       </c>
       <c r="D14" s="1">
-        <v>-252.724000</v>
+        <v>-252.72399999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>74377.711267</v>
+        <v>74377.711267000006</v>
       </c>
       <c r="G14" s="1">
-        <v>20.660475</v>
+        <v>20.660475000000002</v>
       </c>
       <c r="H14" s="1">
-        <v>1170.060000</v>
+        <v>1170.06</v>
       </c>
       <c r="I14" s="1">
-        <v>-212.559000</v>
+        <v>-212.559</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>74388.069222</v>
+        <v>74388.069222000006</v>
       </c>
       <c r="L14" s="1">
-        <v>20.663353</v>
+        <v>20.663353000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>1198.410000</v>
+        <v>1198.4100000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-150.231000</v>
+        <v>-150.23099999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>74398.325994</v>
+        <v>74398.325993999999</v>
       </c>
       <c r="Q14" s="1">
-        <v>20.666202</v>
+        <v>20.666201999999998</v>
       </c>
       <c r="R14" s="1">
-        <v>1206.550000</v>
+        <v>1206.55</v>
       </c>
       <c r="S14" s="1">
-        <v>-128.666000</v>
+        <v>-128.666</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>74408.482075</v>
+        <v>74408.482075000007</v>
       </c>
       <c r="V14" s="1">
-        <v>20.669023</v>
+        <v>20.669022999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>1214.450000</v>
+        <v>1214.45</v>
       </c>
       <c r="X14" s="1">
-        <v>-108.008000</v>
+        <v>-108.008</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>74418.622814</v>
+        <v>74418.622814000002</v>
       </c>
       <c r="AA14" s="1">
-        <v>20.671840</v>
+        <v>20.67184</v>
       </c>
       <c r="AB14" s="1">
-        <v>1222.500000</v>
+        <v>1222.5</v>
       </c>
       <c r="AC14" s="1">
-        <v>-91.307000</v>
+        <v>-91.307000000000002</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>74428.786336</v>
+        <v>74428.786336000005</v>
       </c>
       <c r="AF14" s="1">
-        <v>20.674663</v>
+        <v>20.674662999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>1227.440000</v>
+        <v>1227.44</v>
       </c>
       <c r="AH14" s="1">
-        <v>-86.831800</v>
+        <v>-86.831800000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>74439.222626</v>
+        <v>74439.222626000002</v>
       </c>
       <c r="AK14" s="1">
-        <v>20.677562</v>
+        <v>20.677562000000002</v>
       </c>
       <c r="AL14" s="1">
-        <v>1234.780000</v>
+        <v>1234.78</v>
       </c>
       <c r="AM14" s="1">
-        <v>-90.124400</v>
+        <v>-90.124399999999994</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>74449.984821</v>
+        <v>74449.984821000005</v>
       </c>
       <c r="AP14" s="1">
-        <v>20.680551</v>
+        <v>20.680551000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1242.830000</v>
+        <v>1242.83</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.037000</v>
+        <v>-102.03700000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>74460.974677</v>
+        <v>74460.974677000006</v>
       </c>
       <c r="AU14" s="1">
-        <v>20.683604</v>
+        <v>20.683603999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>1252.910000</v>
+        <v>1252.9100000000001</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.385000</v>
+        <v>-121.38500000000001</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>74472.062247</v>
+        <v>74472.062246999994</v>
       </c>
       <c r="AZ14" s="1">
         <v>20.686684</v>
       </c>
       <c r="BA14" s="1">
-        <v>1261.420000</v>
+        <v>1261.42</v>
       </c>
       <c r="BB14" s="1">
-        <v>-138.918000</v>
+        <v>-138.91800000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>74483.844247</v>
+        <v>74483.844247000001</v>
       </c>
       <c r="BE14" s="1">
         <v>20.689957</v>
       </c>
       <c r="BF14" s="1">
-        <v>1301.920000</v>
+        <v>1301.92</v>
       </c>
       <c r="BG14" s="1">
-        <v>-221.184000</v>
+        <v>-221.184</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>74495.215001</v>
+        <v>74495.215001000004</v>
       </c>
       <c r="BJ14" s="1">
-        <v>20.693115</v>
+        <v>20.693114999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1372.410000</v>
+        <v>1372.41</v>
       </c>
       <c r="BL14" s="1">
-        <v>-357.925000</v>
+        <v>-357.92500000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>74506.238586</v>
+        <v>74506.238586000007</v>
       </c>
       <c r="BO14" s="1">
-        <v>20.696177</v>
+        <v>20.696176999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1488.580000</v>
+        <v>1488.58</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-579.576000</v>
+        <v>-579.57600000000002</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>74517.400059</v>
+        <v>74517.400059000007</v>
       </c>
       <c r="BT14" s="1">
         <v>20.699278</v>
       </c>
       <c r="BU14" s="1">
-        <v>1622.340000</v>
+        <v>1622.34</v>
       </c>
       <c r="BV14" s="1">
-        <v>-828.069000</v>
+        <v>-828.06899999999996</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>74528.161293</v>
+        <v>74528.161292999997</v>
       </c>
       <c r="BY14" s="1">
-        <v>20.702267</v>
+        <v>20.702266999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1776.130000</v>
+        <v>1776.13</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1098.150000</v>
+        <v>-1098.1500000000001</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>74541.087017</v>
+        <v>74541.087016999998</v>
       </c>
       <c r="CD14" s="1">
-        <v>20.705858</v>
+        <v>20.705857999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>2193.880000</v>
+        <v>2193.88</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1750.090000</v>
+        <v>-1750.09</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>74367.613713</v>
+        <v>74367.613712999999</v>
       </c>
       <c r="B15" s="1">
-        <v>20.657670</v>
+        <v>20.65767</v>
       </c>
       <c r="C15" s="1">
-        <v>1148.370000</v>
+        <v>1148.3699999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>-252.766000</v>
+        <v>-252.76599999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>74378.055988</v>
+        <v>74378.055987999993</v>
       </c>
       <c r="G15" s="1">
-        <v>20.660571</v>
+        <v>20.660571000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>1170.070000</v>
+        <v>1170.07</v>
       </c>
       <c r="I15" s="1">
-        <v>-212.799000</v>
+        <v>-212.79900000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>74388.418901</v>
+        <v>74388.418900999997</v>
       </c>
       <c r="L15" s="1">
-        <v>20.663450</v>
+        <v>20.663450000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>1198.400000</v>
+        <v>1198.4000000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-150.069000</v>
+        <v>-150.06899999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>74398.674222</v>
+        <v>74398.674222000001</v>
       </c>
       <c r="Q15" s="1">
-        <v>20.666298</v>
+        <v>20.666298000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>1206.440000</v>
+        <v>1206.44</v>
       </c>
       <c r="S15" s="1">
-        <v>-128.696000</v>
+        <v>-128.696</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>74408.908634</v>
+        <v>74408.908634000007</v>
       </c>
       <c r="V15" s="1">
         <v>20.669141</v>
       </c>
       <c r="W15" s="1">
-        <v>1214.340000</v>
+        <v>1214.3399999999999</v>
       </c>
       <c r="X15" s="1">
-        <v>-108.076000</v>
+        <v>-108.07599999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>74418.896110</v>
+        <v>74418.896110000001</v>
       </c>
       <c r="AA15" s="1">
         <v>20.671916</v>
       </c>
       <c r="AB15" s="1">
-        <v>1222.430000</v>
+        <v>1222.43</v>
       </c>
       <c r="AC15" s="1">
-        <v>-91.333200</v>
+        <v>-91.333200000000005</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>74429.055136</v>
+        <v>74429.055135999995</v>
       </c>
       <c r="AF15" s="1">
-        <v>20.674738</v>
+        <v>20.674738000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>1227.440000</v>
+        <v>1227.44</v>
       </c>
       <c r="AH15" s="1">
-        <v>-86.803100</v>
+        <v>-86.803100000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>74439.570818</v>
+        <v>74439.570817999993</v>
       </c>
       <c r="AK15" s="1">
-        <v>20.677659</v>
+        <v>20.677658999999998</v>
       </c>
       <c r="AL15" s="1">
-        <v>1234.770000</v>
+        <v>1234.77</v>
       </c>
       <c r="AM15" s="1">
-        <v>-90.123700</v>
+        <v>-90.123699999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>74450.345661</v>
+        <v>74450.345660999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>20.680652</v>
+        <v>20.680651999999998</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1242.840000</v>
+        <v>1242.8399999999999</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.012000</v>
+        <v>-102.012</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>74461.341718</v>
+        <v>74461.341717999996</v>
       </c>
       <c r="AU15" s="1">
-        <v>20.683706</v>
+        <v>20.683706000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1252.910000</v>
+        <v>1252.9100000000001</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.398000</v>
+        <v>-121.398</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>74472.782971</v>
+        <v>74472.782970999993</v>
       </c>
       <c r="AZ15" s="1">
-        <v>20.686884</v>
+        <v>20.686883999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1261.450000</v>
+        <v>1261.45</v>
       </c>
       <c r="BB15" s="1">
-        <v>-138.906000</v>
+        <v>-138.90600000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>74484.217702</v>
+        <v>74484.217701999994</v>
       </c>
       <c r="BE15" s="1">
-        <v>20.690060</v>
+        <v>20.690059999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1301.890000</v>
+        <v>1301.8900000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-221.187000</v>
+        <v>-221.18700000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>74495.593449</v>
+        <v>74495.593449000007</v>
       </c>
       <c r="BJ15" s="1">
-        <v>20.693220</v>
+        <v>20.69322</v>
       </c>
       <c r="BK15" s="1">
-        <v>1372.440000</v>
+        <v>1372.44</v>
       </c>
       <c r="BL15" s="1">
-        <v>-357.946000</v>
+        <v>-357.94600000000003</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>74506.659225</v>
+        <v>74506.659224999996</v>
       </c>
       <c r="BO15" s="1">
-        <v>20.696294</v>
+        <v>20.696294000000002</v>
       </c>
       <c r="BP15" s="1">
-        <v>1488.640000</v>
+        <v>1488.64</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-579.558000</v>
+        <v>-579.55799999999999</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>74518.130666</v>
+        <v>74518.130665999997</v>
       </c>
       <c r="BT15" s="1">
-        <v>20.699481</v>
+        <v>20.699480999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1622.100000</v>
+        <v>1622.1</v>
       </c>
       <c r="BV15" s="1">
-        <v>-828.183000</v>
+        <v>-828.18299999999999</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>74528.923643</v>
+        <v>74528.923643000002</v>
       </c>
       <c r="BY15" s="1">
         <v>20.702479</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1776.050000</v>
+        <v>1776.05</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1098.220000</v>
+        <v>-1098.22</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>74541.305243</v>
+        <v>74541.305242999995</v>
       </c>
       <c r="CD15" s="1">
         <v>20.705918</v>
       </c>
       <c r="CE15" s="1">
-        <v>2194.370000</v>
+        <v>2194.37</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1750.420000</v>
+        <v>-1750.42</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>74367.955457</v>
+        <v>74367.955457000004</v>
       </c>
       <c r="B16" s="1">
-        <v>20.657765</v>
+        <v>20.657765000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>1148.650000</v>
+        <v>1148.6500000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>-252.747000</v>
+        <v>-252.74700000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>74378.408643</v>
+        <v>74378.408643000002</v>
       </c>
       <c r="G16" s="1">
-        <v>20.660669</v>
+        <v>20.660668999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>1170.010000</v>
+        <v>1170.01</v>
       </c>
       <c r="I16" s="1">
-        <v>-213.254000</v>
+        <v>-213.25399999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>74388.835541</v>
+        <v>74388.835540999993</v>
       </c>
       <c r="L16" s="1">
-        <v>20.663565</v>
+        <v>20.663564999999998</v>
       </c>
       <c r="M16" s="1">
-        <v>1198.080000</v>
+        <v>1198.08</v>
       </c>
       <c r="N16" s="1">
-        <v>-149.883000</v>
+        <v>-149.88300000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>74399.173656</v>
+        <v>74399.173655999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>20.666437</v>
+        <v>20.666436999999998</v>
       </c>
       <c r="R16" s="1">
-        <v>1206.440000</v>
+        <v>1206.44</v>
       </c>
       <c r="S16" s="1">
-        <v>-128.666000</v>
+        <v>-128.666</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>74409.174490</v>
+        <v>74409.174490000005</v>
       </c>
       <c r="V16" s="1">
-        <v>20.669215</v>
+        <v>20.669215000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>1214.490000</v>
+        <v>1214.49</v>
       </c>
       <c r="X16" s="1">
-        <v>-108.117000</v>
+        <v>-108.117</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>74419.248351</v>
+        <v>74419.248351000002</v>
       </c>
       <c r="AA16" s="1">
         <v>20.672013</v>
       </c>
       <c r="AB16" s="1">
-        <v>1222.620000</v>
+        <v>1222.6199999999999</v>
       </c>
       <c r="AC16" s="1">
-        <v>-91.300100</v>
+        <v>-91.3001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>74429.397559</v>
+        <v>74429.397559000005</v>
       </c>
       <c r="AF16" s="1">
         <v>20.674833</v>
       </c>
       <c r="AG16" s="1">
-        <v>1227.380000</v>
+        <v>1227.3800000000001</v>
       </c>
       <c r="AH16" s="1">
-        <v>-86.715300</v>
+        <v>-86.715299999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>74439.921025</v>
+        <v>74439.921025000003</v>
       </c>
       <c r="AK16" s="1">
-        <v>20.677756</v>
+        <v>20.677755999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>1234.760000</v>
+        <v>1234.76</v>
       </c>
       <c r="AM16" s="1">
-        <v>-90.121500</v>
+        <v>-90.121499999999997</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>74451.070562</v>
+        <v>74451.070561999994</v>
       </c>
       <c r="AP16" s="1">
-        <v>20.680853</v>
+        <v>20.680852999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1242.860000</v>
+        <v>1242.8599999999999</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.041000</v>
+        <v>-102.041</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>74462.070868</v>
+        <v>74462.070867999995</v>
       </c>
       <c r="AU16" s="1">
         <v>20.683909</v>
       </c>
       <c r="AV16" s="1">
-        <v>1252.880000</v>
+        <v>1252.8800000000001</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.396000</v>
+        <v>-121.396</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>74473.156421</v>
+        <v>74473.156421000007</v>
       </c>
       <c r="AZ16" s="1">
-        <v>20.686988</v>
+        <v>20.686987999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1261.420000</v>
+        <v>1261.42</v>
       </c>
       <c r="BB16" s="1">
-        <v>-138.920000</v>
+        <v>-138.91999999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>74484.599622</v>
+        <v>74484.599621999994</v>
       </c>
       <c r="BE16" s="1">
-        <v>20.690167</v>
+        <v>20.690166999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1301.890000</v>
+        <v>1301.8900000000001</v>
       </c>
       <c r="BG16" s="1">
-        <v>-221.207000</v>
+        <v>-221.20699999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>74495.965448</v>
+        <v>74495.965448000003</v>
       </c>
       <c r="BJ16" s="1">
         <v>20.693324</v>
       </c>
       <c r="BK16" s="1">
-        <v>1372.420000</v>
+        <v>1372.42</v>
       </c>
       <c r="BL16" s="1">
-        <v>-357.939000</v>
+        <v>-357.93900000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>74507.362027</v>
+        <v>74507.362026999996</v>
       </c>
       <c r="BO16" s="1">
         <v>20.696489</v>
       </c>
       <c r="BP16" s="1">
-        <v>1488.570000</v>
+        <v>1488.57</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-579.540000</v>
+        <v>-579.54</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>74518.246762</v>
+        <v>74518.246761999995</v>
       </c>
       <c r="BT16" s="1">
         <v>20.699513</v>
       </c>
       <c r="BU16" s="1">
-        <v>1621.920000</v>
+        <v>1621.92</v>
       </c>
       <c r="BV16" s="1">
-        <v>-828.347000</v>
+        <v>-828.34699999999998</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>74529.033227</v>
+        <v>74529.033227000007</v>
       </c>
       <c r="BY16" s="1">
-        <v>20.702509</v>
+        <v>20.702508999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1776.210000</v>
+        <v>1776.21</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1098.110000</v>
+        <v>-1098.1099999999999</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>74541.827052</v>
+        <v>74541.827051999993</v>
       </c>
       <c r="CD16" s="1">
         <v>20.706063</v>
       </c>
       <c r="CE16" s="1">
-        <v>2195.970000</v>
+        <v>2195.9699999999998</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1749.290000</v>
+        <v>-1749.29</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>74368.388991</v>
       </c>
       <c r="B17" s="1">
-        <v>20.657886</v>
+        <v>20.657886000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1148.430000</v>
+        <v>1148.43</v>
       </c>
       <c r="D17" s="1">
-        <v>-252.763000</v>
+        <v>-252.76300000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>74378.840690</v>
+        <v>74378.840689999997</v>
       </c>
       <c r="G17" s="1">
-        <v>20.660789</v>
+        <v>20.660789000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>1170.740000</v>
+        <v>1170.74</v>
       </c>
       <c r="I17" s="1">
-        <v>-213.040000</v>
+        <v>-213.04</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>74389.118260</v>
+        <v>74389.118260000003</v>
       </c>
       <c r="L17" s="1">
-        <v>20.663644</v>
+        <v>20.663644000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>1198.380000</v>
+        <v>1198.3800000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>-149.830000</v>
+        <v>-149.83000000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>74399.388461</v>
+        <v>74399.388460999995</v>
       </c>
       <c r="Q17" s="1">
         <v>20.666497</v>
       </c>
       <c r="R17" s="1">
-        <v>1206.500000</v>
+        <v>1206.5</v>
       </c>
       <c r="S17" s="1">
-        <v>-128.597000</v>
+        <v>-128.59700000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>74409.522682</v>
+        <v>74409.522681999995</v>
       </c>
       <c r="V17" s="1">
-        <v>20.669312</v>
+        <v>20.669312000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>1214.320000</v>
+        <v>1214.32</v>
       </c>
       <c r="X17" s="1">
-        <v>-108.158000</v>
+        <v>-108.158</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>74419.593453</v>
+        <v>74419.593452999994</v>
       </c>
       <c r="AA17" s="1">
-        <v>20.672109</v>
+        <v>20.672108999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>1222.470000</v>
+        <v>1222.47</v>
       </c>
       <c r="AC17" s="1">
-        <v>-91.273400</v>
+        <v>-91.273399999999995</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>74429.741103</v>
+        <v>74429.741102999993</v>
       </c>
       <c r="AF17" s="1">
-        <v>20.674928</v>
+        <v>20.674928000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>1227.410000</v>
+        <v>1227.4100000000001</v>
       </c>
       <c r="AH17" s="1">
-        <v>-86.752600</v>
+        <v>-86.752600000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>74440.615921</v>
+        <v>74440.615921000004</v>
       </c>
       <c r="AK17" s="1">
-        <v>20.677949</v>
+        <v>20.677949000000002</v>
       </c>
       <c r="AL17" s="1">
-        <v>1234.760000</v>
+        <v>1234.76</v>
       </c>
       <c r="AM17" s="1">
-        <v>-90.113000</v>
+        <v>-90.113</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>74451.452514</v>
+        <v>74451.452514000004</v>
       </c>
       <c r="AP17" s="1">
-        <v>20.680959</v>
+        <v>20.680959000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1242.820000</v>
+        <v>1242.82</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.029000</v>
+        <v>-102.029</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>74462.453252</v>
+        <v>74462.453252000007</v>
       </c>
       <c r="AU17" s="1">
-        <v>20.684015</v>
+        <v>20.684014999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1252.900000</v>
+        <v>1252.9000000000001</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.380000</v>
+        <v>-121.38</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>74473.545781</v>
+        <v>74473.545780999993</v>
       </c>
       <c r="AZ17" s="1">
         <v>20.687096</v>
       </c>
       <c r="BA17" s="1">
-        <v>1261.440000</v>
+        <v>1261.44</v>
       </c>
       <c r="BB17" s="1">
-        <v>-138.956000</v>
+        <v>-138.95599999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>74485.268725</v>
+        <v>74485.268725000002</v>
       </c>
       <c r="BE17" s="1">
-        <v>20.690352</v>
+        <v>20.690352000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1301.870000</v>
+        <v>1301.8699999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-221.205000</v>
+        <v>-221.20500000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>74496.687622</v>
+        <v>74496.687621999998</v>
       </c>
       <c r="BJ17" s="1">
         <v>20.693524</v>
       </c>
       <c r="BK17" s="1">
-        <v>1372.440000</v>
+        <v>1372.44</v>
       </c>
       <c r="BL17" s="1">
-        <v>-357.979000</v>
+        <v>-357.97899999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>74507.475641</v>
+        <v>74507.475640999997</v>
       </c>
       <c r="BO17" s="1">
-        <v>20.696521</v>
+        <v>20.696521000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1488.590000</v>
+        <v>1488.59</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-579.533000</v>
+        <v>-579.53300000000002</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>74518.656169</v>
+        <v>74518.656168999994</v>
       </c>
       <c r="BT17" s="1">
         <v>20.699627</v>
       </c>
       <c r="BU17" s="1">
-        <v>1621.870000</v>
+        <v>1621.87</v>
       </c>
       <c r="BV17" s="1">
-        <v>-828.626000</v>
+        <v>-828.62599999999998</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>74529.449372</v>
+        <v>74529.449372000003</v>
       </c>
       <c r="BY17" s="1">
-        <v>20.702625</v>
+        <v>20.702625000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1776.210000</v>
+        <v>1776.21</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1098.140000</v>
+        <v>-1098.1400000000001</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>74542.343370</v>
+        <v>74542.343370000002</v>
       </c>
       <c r="CD17" s="1">
-        <v>20.706206</v>
+        <v>20.706206000000002</v>
       </c>
       <c r="CE17" s="1">
-        <v>2195.800000</v>
+        <v>2195.8000000000002</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1749.440000</v>
+        <v>-1749.44</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>74368.653327</v>
+        <v>74368.653327000007</v>
       </c>
       <c r="B18" s="1">
-        <v>20.657959</v>
+        <v>20.657959000000002</v>
       </c>
       <c r="C18" s="1">
-        <v>1148.570000</v>
+        <v>1148.57</v>
       </c>
       <c r="D18" s="1">
-        <v>-252.888000</v>
+        <v>-252.88800000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>74379.111475</v>
+        <v>74379.111474999998</v>
       </c>
       <c r="G18" s="1">
         <v>20.660864</v>
       </c>
       <c r="H18" s="1">
-        <v>1169.540000</v>
+        <v>1169.54</v>
       </c>
       <c r="I18" s="1">
-        <v>-213.537000</v>
+        <v>-213.53700000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>74389.468485</v>
+        <v>74389.468485000005</v>
       </c>
       <c r="L18" s="1">
-        <v>20.663741</v>
+        <v>20.663741000000002</v>
       </c>
       <c r="M18" s="1">
-        <v>1198.200000</v>
+        <v>1198.2</v>
       </c>
       <c r="N18" s="1">
-        <v>-150.060000</v>
+        <v>-150.06</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>74399.721772</v>
+        <v>74399.721772000004</v>
       </c>
       <c r="Q18" s="1">
-        <v>20.666589</v>
+        <v>20.666588999999998</v>
       </c>
       <c r="R18" s="1">
-        <v>1206.590000</v>
+        <v>1206.5899999999999</v>
       </c>
       <c r="S18" s="1">
-        <v>-128.618000</v>
+        <v>-128.61799999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>74409.865424</v>
+        <v>74409.865424000003</v>
       </c>
       <c r="V18" s="1">
         <v>20.669407</v>
       </c>
       <c r="W18" s="1">
-        <v>1214.510000</v>
+        <v>1214.51</v>
       </c>
       <c r="X18" s="1">
-        <v>-108.178000</v>
+        <v>-108.178</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>74420.289340</v>
+        <v>74420.289340000003</v>
       </c>
       <c r="AA18" s="1">
-        <v>20.672303</v>
+        <v>20.672302999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>1222.440000</v>
+        <v>1222.44</v>
       </c>
       <c r="AC18" s="1">
-        <v>-91.323800</v>
+        <v>-91.323800000000006</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>74430.434019</v>
+        <v>74430.434018999993</v>
       </c>
       <c r="AF18" s="1">
-        <v>20.675121</v>
+        <v>20.675121000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>1227.400000</v>
+        <v>1227.4000000000001</v>
       </c>
       <c r="AH18" s="1">
-        <v>-86.839300</v>
+        <v>-86.839299999999994</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>74440.968545</v>
+        <v>74440.968544999996</v>
       </c>
       <c r="AK18" s="1">
-        <v>20.678047</v>
+        <v>20.678046999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>1234.770000</v>
+        <v>1234.77</v>
       </c>
       <c r="AM18" s="1">
-        <v>-90.104000</v>
+        <v>-90.103999999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>74451.809107</v>
+        <v>74451.809106999994</v>
       </c>
       <c r="AP18" s="1">
         <v>20.681058</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1242.870000</v>
+        <v>1242.8699999999999</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.020000</v>
+        <v>-102.02</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>74462.816819</v>
@@ -4728,482 +5144,482 @@
         <v>20.684116</v>
       </c>
       <c r="AV18" s="1">
-        <v>1252.910000</v>
+        <v>1252.9100000000001</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.379000</v>
+        <v>-121.379</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>74474.226942</v>
+        <v>74474.226941999994</v>
       </c>
       <c r="AZ18" s="1">
-        <v>20.687285</v>
+        <v>20.687284999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1261.420000</v>
+        <v>1261.42</v>
       </c>
       <c r="BB18" s="1">
-        <v>-138.928000</v>
+        <v>-138.928</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>74485.685367</v>
+        <v>74485.685366999998</v>
       </c>
       <c r="BE18" s="1">
-        <v>20.690468</v>
+        <v>20.690467999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1301.900000</v>
+        <v>1301.9000000000001</v>
       </c>
       <c r="BG18" s="1">
-        <v>-221.211000</v>
+        <v>-221.21100000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>74497.114182</v>
+        <v>74497.114182000005</v>
       </c>
       <c r="BJ18" s="1">
-        <v>20.693643</v>
+        <v>20.693643000000002</v>
       </c>
       <c r="BK18" s="1">
-        <v>1372.460000</v>
+        <v>1372.46</v>
       </c>
       <c r="BL18" s="1">
-        <v>-357.930000</v>
+        <v>-357.93</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>74507.905144</v>
+        <v>74507.905144000004</v>
       </c>
       <c r="BO18" s="1">
-        <v>20.696640</v>
+        <v>20.696639999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1488.590000</v>
+        <v>1488.59</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-579.562000</v>
+        <v>-579.56200000000001</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>74519.086953</v>
+        <v>74519.086953000005</v>
       </c>
       <c r="BT18" s="1">
-        <v>20.699746</v>
+        <v>20.699746000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1621.980000</v>
+        <v>1621.98</v>
       </c>
       <c r="BV18" s="1">
-        <v>-828.694000</v>
+        <v>-828.69399999999996</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>74529.867035</v>
+        <v>74529.867035000003</v>
       </c>
       <c r="BY18" s="1">
         <v>20.702741</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1776.110000</v>
+        <v>1776.11</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1098.190000</v>
+        <v>-1098.19</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>74542.895417</v>
+        <v>74542.895417000007</v>
       </c>
       <c r="CD18" s="1">
-        <v>20.706360</v>
+        <v>20.70636</v>
       </c>
       <c r="CE18" s="1">
-        <v>2194.910000</v>
+        <v>2194.91</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1750.530000</v>
+        <v>-1750.53</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>74368.991104</v>
+        <v>74368.991104000001</v>
       </c>
       <c r="B19" s="1">
-        <v>20.658053</v>
+        <v>20.658052999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>1148.640000</v>
+        <v>1148.6400000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>-252.855000</v>
+        <v>-252.85499999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>74379.455234</v>
+        <v>74379.455233999994</v>
       </c>
       <c r="G19" s="1">
-        <v>20.660960</v>
+        <v>20.660959999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>1169.290000</v>
+        <v>1169.29</v>
       </c>
       <c r="I19" s="1">
-        <v>-212.725000</v>
+        <v>-212.72499999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>74389.811173</v>
+        <v>74389.811172999995</v>
       </c>
       <c r="L19" s="1">
         <v>20.663836</v>
       </c>
       <c r="M19" s="1">
-        <v>1198.230000</v>
+        <v>1198.23</v>
       </c>
       <c r="N19" s="1">
-        <v>-150.085000</v>
+        <v>-150.08500000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>74400.418613</v>
+        <v>74400.418613000002</v>
       </c>
       <c r="Q19" s="1">
-        <v>20.666783</v>
+        <v>20.666782999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>1206.600000</v>
+        <v>1206.5999999999999</v>
       </c>
       <c r="S19" s="1">
-        <v>-128.663000</v>
+        <v>-128.66300000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>74410.423920</v>
+        <v>74410.423920000001</v>
       </c>
       <c r="V19" s="1">
-        <v>20.669562</v>
+        <v>20.669561999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>1214.390000</v>
+        <v>1214.3900000000001</v>
       </c>
       <c r="X19" s="1">
-        <v>-108.064000</v>
+        <v>-108.06399999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>74420.640044</v>
       </c>
       <c r="AA19" s="1">
-        <v>20.672400</v>
+        <v>20.6724</v>
       </c>
       <c r="AB19" s="1">
-        <v>1222.420000</v>
+        <v>1222.42</v>
       </c>
       <c r="AC19" s="1">
-        <v>-91.166100</v>
+        <v>-91.1661</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>74430.773277</v>
       </c>
       <c r="AF19" s="1">
-        <v>20.675215</v>
+        <v>20.675215000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1227.450000</v>
+        <v>1227.45</v>
       </c>
       <c r="AH19" s="1">
-        <v>-86.797600</v>
+        <v>-86.797600000000003</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>74441.316241</v>
+        <v>74441.316240999993</v>
       </c>
       <c r="AK19" s="1">
-        <v>20.678143</v>
+        <v>20.678142999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>1234.730000</v>
+        <v>1234.73</v>
       </c>
       <c r="AM19" s="1">
-        <v>-90.125200</v>
+        <v>-90.125200000000007</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>74452.483665</v>
+        <v>74452.483665000007</v>
       </c>
       <c r="AP19" s="1">
-        <v>20.681245</v>
+        <v>20.681245000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1242.830000</v>
+        <v>1242.83</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.014000</v>
+        <v>-102.014</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>74463.491874</v>
+        <v>74463.491873999999</v>
       </c>
       <c r="AU19" s="1">
         <v>20.684303</v>
       </c>
       <c r="AV19" s="1">
-        <v>1252.910000</v>
+        <v>1252.9100000000001</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.402000</v>
+        <v>-121.402</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>74474.621604</v>
       </c>
       <c r="AZ19" s="1">
-        <v>20.687395</v>
+        <v>20.687394999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1261.420000</v>
+        <v>1261.42</v>
       </c>
       <c r="BB19" s="1">
-        <v>-138.936000</v>
+        <v>-138.93600000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>74486.069301</v>
+        <v>74486.069300999996</v>
       </c>
       <c r="BE19" s="1">
-        <v>20.690575</v>
+        <v>20.690574999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1301.890000</v>
+        <v>1301.8900000000001</v>
       </c>
       <c r="BG19" s="1">
-        <v>-221.217000</v>
+        <v>-221.21700000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>74497.521397</v>
+        <v>74497.521397000004</v>
       </c>
       <c r="BJ19" s="1">
         <v>20.693756</v>
       </c>
       <c r="BK19" s="1">
-        <v>1372.460000</v>
+        <v>1372.46</v>
       </c>
       <c r="BL19" s="1">
-        <v>-357.943000</v>
+        <v>-357.94299999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>74508.300487</v>
       </c>
       <c r="BO19" s="1">
-        <v>20.696750</v>
+        <v>20.696750000000002</v>
       </c>
       <c r="BP19" s="1">
-        <v>1488.610000</v>
+        <v>1488.61</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-579.576000</v>
+        <v>-579.57600000000002</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>74519.515992</v>
+        <v>74519.515992000001</v>
       </c>
       <c r="BT19" s="1">
         <v>20.699866</v>
       </c>
       <c r="BU19" s="1">
-        <v>1622.230000</v>
+        <v>1622.23</v>
       </c>
       <c r="BV19" s="1">
-        <v>-828.955000</v>
+        <v>-828.95500000000004</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>74530.315883</v>
+        <v>74530.315883000003</v>
       </c>
       <c r="BY19" s="1">
         <v>20.702866</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1776.100000</v>
+        <v>1776.1</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1098.140000</v>
+        <v>-1098.1400000000001</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>74543.428617</v>
+        <v>74543.428616999998</v>
       </c>
       <c r="CD19" s="1">
-        <v>20.706508</v>
+        <v>20.706507999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>2195.820000</v>
+        <v>2195.8200000000002</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1748.800000</v>
+        <v>-1748.8</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>74369.334831</v>
       </c>
       <c r="B20" s="1">
-        <v>20.658149</v>
+        <v>20.658149000000002</v>
       </c>
       <c r="C20" s="1">
-        <v>1148.760000</v>
+        <v>1148.76</v>
       </c>
       <c r="D20" s="1">
-        <v>-252.778000</v>
+        <v>-252.77799999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>74379.800913</v>
+        <v>74379.800912999999</v>
       </c>
       <c r="G20" s="1">
-        <v>20.661056</v>
+        <v>20.661055999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>1170.370000</v>
+        <v>1170.3699999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>-213.076000</v>
+        <v>-213.07599999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>74390.505603</v>
+        <v>74390.505602999998</v>
       </c>
       <c r="L20" s="1">
-        <v>20.664029</v>
+        <v>20.664028999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>1198.110000</v>
+        <v>1198.1099999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>-150.061000</v>
+        <v>-150.06100000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>74400.766807</v>
+        <v>74400.766807000007</v>
       </c>
       <c r="Q20" s="1">
-        <v>20.666880</v>
+        <v>20.666879999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>1206.550000</v>
+        <v>1206.55</v>
       </c>
       <c r="S20" s="1">
-        <v>-128.712000</v>
+        <v>-128.71199999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>74410.774088</v>
+        <v>74410.774088000006</v>
       </c>
       <c r="V20" s="1">
-        <v>20.669659</v>
+        <v>20.669658999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>1214.460000</v>
+        <v>1214.46</v>
       </c>
       <c r="X20" s="1">
-        <v>-108.123000</v>
+        <v>-108.123</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>74420.992699</v>
+        <v>74420.992698999995</v>
       </c>
       <c r="AA20" s="1">
-        <v>20.672498</v>
+        <v>20.672498000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>1222.480000</v>
+        <v>1222.48</v>
       </c>
       <c r="AC20" s="1">
-        <v>-91.233600</v>
+        <v>-91.233599999999996</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>74431.116013</v>
+        <v>74431.116013000006</v>
       </c>
       <c r="AF20" s="1">
-        <v>20.675310</v>
+        <v>20.67531</v>
       </c>
       <c r="AG20" s="1">
-        <v>1227.430000</v>
+        <v>1227.43</v>
       </c>
       <c r="AH20" s="1">
-        <v>-86.770400</v>
+        <v>-86.770399999999995</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>74441.980419</v>
@@ -5212,88 +5628,88 @@
         <v>20.678328</v>
       </c>
       <c r="AL20" s="1">
-        <v>1234.770000</v>
+        <v>1234.77</v>
       </c>
       <c r="AM20" s="1">
-        <v>-90.103000</v>
+        <v>-90.102999999999994</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>74452.889392</v>
+        <v>74452.889391999997</v>
       </c>
       <c r="AP20" s="1">
-        <v>20.681358</v>
+        <v>20.681357999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1242.860000</v>
+        <v>1242.8599999999999</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.020000</v>
+        <v>-102.02</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>74463.945218</v>
+        <v>74463.945217999993</v>
       </c>
       <c r="AU20" s="1">
-        <v>20.684429</v>
+        <v>20.684429000000002</v>
       </c>
       <c r="AV20" s="1">
-        <v>1252.900000</v>
+        <v>1252.9000000000001</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.393000</v>
+        <v>-121.393</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>74475.007987</v>
+        <v>74475.007987000005</v>
       </c>
       <c r="AZ20" s="1">
-        <v>20.687502</v>
+        <v>20.687501999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1261.430000</v>
+        <v>1261.43</v>
       </c>
       <c r="BB20" s="1">
-        <v>-138.932000</v>
+        <v>-138.93199999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>74486.434357</v>
+        <v>74486.434357000006</v>
       </c>
       <c r="BE20" s="1">
         <v>20.690676</v>
       </c>
       <c r="BF20" s="1">
-        <v>1301.910000</v>
+        <v>1301.9100000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-221.206000</v>
+        <v>-221.20599999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>74497.895380</v>
+        <v>74497.895380000002</v>
       </c>
       <c r="BJ20" s="1">
-        <v>20.693860</v>
+        <v>20.693860000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1372.420000</v>
+        <v>1372.42</v>
       </c>
       <c r="BL20" s="1">
-        <v>-357.964000</v>
+        <v>-357.964</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>74508.727046</v>
@@ -5302,300 +5718,300 @@
         <v>20.696869</v>
       </c>
       <c r="BP20" s="1">
-        <v>1488.580000</v>
+        <v>1488.58</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-579.547000</v>
+        <v>-579.54700000000003</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>74519.913816</v>
       </c>
       <c r="BT20" s="1">
-        <v>20.699976</v>
+        <v>20.699975999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1622.260000</v>
+        <v>1622.26</v>
       </c>
       <c r="BV20" s="1">
-        <v>-828.991000</v>
+        <v>-828.99099999999999</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>74530.740457</v>
+        <v>74530.740457000007</v>
       </c>
       <c r="BY20" s="1">
         <v>20.702983</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1776.190000</v>
+        <v>1776.19</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1098.120000</v>
+        <v>-1098.1199999999999</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>74543.943960</v>
+        <v>74543.943960000004</v>
       </c>
       <c r="CD20" s="1">
-        <v>20.706651</v>
+        <v>20.706651000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>2194.660000</v>
+        <v>2194.66</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1748.140000</v>
+        <v>-1748.14</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>74370.023278</v>
+        <v>74370.023277999993</v>
       </c>
       <c r="B21" s="1">
-        <v>20.658340</v>
+        <v>20.658339999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>1148.730000</v>
+        <v>1148.73</v>
       </c>
       <c r="D21" s="1">
-        <v>-252.756000</v>
+        <v>-252.756</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>74380.490851</v>
+        <v>74380.490850999995</v>
       </c>
       <c r="G21" s="1">
-        <v>20.661247</v>
+        <v>20.661246999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>1170.010000</v>
+        <v>1170.01</v>
       </c>
       <c r="I21" s="1">
-        <v>-213.336000</v>
+        <v>-213.33600000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>74390.852770</v>
+        <v>74390.852769999998</v>
       </c>
       <c r="L21" s="1">
         <v>20.664126</v>
       </c>
       <c r="M21" s="1">
-        <v>1198.210000</v>
+        <v>1198.21</v>
       </c>
       <c r="N21" s="1">
-        <v>-150.199000</v>
+        <v>-150.19900000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>74401.116855</v>
       </c>
       <c r="Q21" s="1">
-        <v>20.666977</v>
+        <v>20.666976999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1206.500000</v>
+        <v>1206.5</v>
       </c>
       <c r="S21" s="1">
-        <v>-128.663000</v>
+        <v>-128.66300000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>74411.122777</v>
+        <v>74411.122776999997</v>
       </c>
       <c r="V21" s="1">
         <v>20.669756</v>
       </c>
       <c r="W21" s="1">
-        <v>1214.540000</v>
+        <v>1214.54</v>
       </c>
       <c r="X21" s="1">
-        <v>-108.010000</v>
+        <v>-108.01</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>74421.657834</v>
+        <v>74421.657833999998</v>
       </c>
       <c r="AA21" s="1">
-        <v>20.672683</v>
+        <v>20.672682999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>1222.540000</v>
+        <v>1222.54</v>
       </c>
       <c r="AC21" s="1">
-        <v>-91.216600</v>
+        <v>-91.2166</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>74431.786604</v>
+        <v>74431.786603999994</v>
       </c>
       <c r="AF21" s="1">
-        <v>20.675496</v>
+        <v>20.675495999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>1227.390000</v>
+        <v>1227.3900000000001</v>
       </c>
       <c r="AH21" s="1">
-        <v>-86.799600</v>
+        <v>-86.799599999999998</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>74442.361310</v>
+        <v>74442.361309999993</v>
       </c>
       <c r="AK21" s="1">
-        <v>20.678434</v>
+        <v>20.678433999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1234.770000</v>
+        <v>1234.77</v>
       </c>
       <c r="AM21" s="1">
-        <v>-90.123900</v>
+        <v>-90.123900000000006</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>74453.273793</v>
       </c>
       <c r="AP21" s="1">
-        <v>20.681465</v>
+        <v>20.681464999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1242.840000</v>
+        <v>1242.8399999999999</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.029000</v>
+        <v>-102.029</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>74464.312753</v>
+        <v>74464.312753000006</v>
       </c>
       <c r="AU21" s="1">
         <v>20.684531</v>
       </c>
       <c r="AV21" s="1">
-        <v>1252.940000</v>
+        <v>1252.94</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.408000</v>
+        <v>-121.408</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>74475.367619</v>
+        <v>74475.367618999997</v>
       </c>
       <c r="AZ21" s="1">
-        <v>20.687602</v>
+        <v>20.687601999999998</v>
       </c>
       <c r="BA21" s="1">
-        <v>1261.430000</v>
+        <v>1261.43</v>
       </c>
       <c r="BB21" s="1">
-        <v>-138.939000</v>
+        <v>-138.93899999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>74486.859923</v>
+        <v>74486.859922999996</v>
       </c>
       <c r="BE21" s="1">
         <v>20.690794</v>
       </c>
       <c r="BF21" s="1">
-        <v>1301.890000</v>
+        <v>1301.8900000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-221.206000</v>
+        <v>-221.20599999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>74498.382950</v>
+        <v>74498.382949999999</v>
       </c>
       <c r="BJ21" s="1">
-        <v>20.693995</v>
+        <v>20.693995000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1372.420000</v>
+        <v>1372.42</v>
       </c>
       <c r="BL21" s="1">
-        <v>-357.945000</v>
+        <v>-357.94499999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>74509.116407</v>
+        <v>74509.116406999994</v>
       </c>
       <c r="BO21" s="1">
         <v>20.696977</v>
       </c>
       <c r="BP21" s="1">
-        <v>1488.580000</v>
+        <v>1488.58</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-579.562000</v>
+        <v>-579.56200000000001</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>74520.329431</v>
+        <v>74520.329431000006</v>
       </c>
       <c r="BT21" s="1">
-        <v>20.700092</v>
+        <v>20.700092000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1622.580000</v>
+        <v>1622.58</v>
       </c>
       <c r="BV21" s="1">
-        <v>-829.049000</v>
+        <v>-829.04899999999998</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>74531.158099</v>
+        <v>74531.158098999993</v>
       </c>
       <c r="BY21" s="1">
-        <v>20.703099</v>
+        <v>20.703099000000002</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1776.070000</v>
+        <v>1776.07</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1098.150000</v>
+        <v>-1098.1500000000001</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>74544.462776</v>
@@ -5604,105 +6020,105 @@
         <v>20.706795</v>
       </c>
       <c r="CE21" s="1">
-        <v>2194.180000</v>
+        <v>2194.1799999999998</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1749.960000</v>
+        <v>-1749.96</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>74370.368495</v>
+        <v>74370.368495000002</v>
       </c>
       <c r="B22" s="1">
-        <v>20.658436</v>
+        <v>20.658435999999998</v>
       </c>
       <c r="C22" s="1">
-        <v>1148.610000</v>
+        <v>1148.6099999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>-252.686000</v>
+        <v>-252.68600000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>74380.843008</v>
+        <v>74380.843007999996</v>
       </c>
       <c r="G22" s="1">
-        <v>20.661345</v>
+        <v>20.661345000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>1170.650000</v>
+        <v>1170.6500000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>-213.446000</v>
+        <v>-213.446</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>74391.198483</v>
       </c>
       <c r="L22" s="1">
-        <v>20.664222</v>
+        <v>20.664221999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>1198.220000</v>
+        <v>1198.22</v>
       </c>
       <c r="N22" s="1">
-        <v>-150.180000</v>
+        <v>-150.18</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>74401.787076</v>
+        <v>74401.787075999993</v>
       </c>
       <c r="Q22" s="1">
-        <v>20.667163</v>
+        <v>20.667162999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>1206.530000</v>
+        <v>1206.53</v>
       </c>
       <c r="S22" s="1">
-        <v>-128.641000</v>
+        <v>-128.64099999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>74411.787414</v>
+        <v>74411.787414000006</v>
       </c>
       <c r="V22" s="1">
-        <v>20.669941</v>
+        <v>20.669941000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>1214.470000</v>
+        <v>1214.47</v>
       </c>
       <c r="X22" s="1">
-        <v>-108.241000</v>
+        <v>-108.241</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>74422.038233</v>
+        <v>74422.038232999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>20.672788</v>
+        <v>20.672788000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>1222.500000</v>
+        <v>1222.5</v>
       </c>
       <c r="AC22" s="1">
-        <v>-91.319900</v>
+        <v>-91.319900000000004</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>74432.149179</v>
@@ -5711,739 +6127,739 @@
         <v>20.675597</v>
       </c>
       <c r="AG22" s="1">
-        <v>1227.410000</v>
+        <v>1227.4100000000001</v>
       </c>
       <c r="AH22" s="1">
-        <v>-86.869100</v>
+        <v>-86.869100000000003</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>74442.710989</v>
+        <v>74442.710988999999</v>
       </c>
       <c r="AK22" s="1">
         <v>20.678531</v>
       </c>
       <c r="AL22" s="1">
-        <v>1234.750000</v>
+        <v>1234.75</v>
       </c>
       <c r="AM22" s="1">
-        <v>-90.092500</v>
+        <v>-90.092500000000001</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>74453.633887</v>
+        <v>74453.633887000004</v>
       </c>
       <c r="AP22" s="1">
-        <v>20.681565</v>
+        <v>20.681564999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1242.860000</v>
+        <v>1242.8599999999999</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.034000</v>
+        <v>-102.03400000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>74464.675826</v>
+        <v>74464.675826000006</v>
       </c>
       <c r="AU22" s="1">
-        <v>20.684632</v>
+        <v>20.684632000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1252.940000</v>
+        <v>1252.94</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.393000</v>
+        <v>-121.393</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>74475.793650</v>
+        <v>74475.793650000007</v>
       </c>
       <c r="AZ22" s="1">
-        <v>20.687720</v>
+        <v>20.687719999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1261.410000</v>
+        <v>1261.4100000000001</v>
       </c>
       <c r="BB22" s="1">
-        <v>-138.926000</v>
+        <v>-138.92599999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>74487.157529</v>
+        <v>74487.157529000004</v>
       </c>
       <c r="BE22" s="1">
         <v>20.690877</v>
       </c>
       <c r="BF22" s="1">
-        <v>1301.910000</v>
+        <v>1301.9100000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-221.196000</v>
+        <v>-221.196</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>74498.686004</v>
+        <v>74498.686004000003</v>
       </c>
       <c r="BJ22" s="1">
-        <v>20.694079</v>
+        <v>20.694078999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1372.420000</v>
+        <v>1372.42</v>
       </c>
       <c r="BL22" s="1">
-        <v>-357.926000</v>
+        <v>-357.92599999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>74509.540949</v>
+        <v>74509.540949000002</v>
       </c>
       <c r="BO22" s="1">
-        <v>20.697095</v>
+        <v>20.697095000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1488.580000</v>
+        <v>1488.58</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-579.578000</v>
+        <v>-579.57799999999997</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>74520.741607</v>
+        <v>74520.741607000004</v>
       </c>
       <c r="BT22" s="1">
-        <v>20.700206</v>
+        <v>20.700206000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1622.690000</v>
+        <v>1622.69</v>
       </c>
       <c r="BV22" s="1">
-        <v>-828.941000</v>
+        <v>-828.94100000000003</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>74531.952712</v>
+        <v>74531.952711999998</v>
       </c>
       <c r="BY22" s="1">
-        <v>20.703320</v>
+        <v>20.703320000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1776.190000</v>
+        <v>1776.19</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1098.310000</v>
+        <v>-1098.31</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>74544.978118</v>
+        <v>74544.978117999999</v>
       </c>
       <c r="CD22" s="1">
-        <v>20.706938</v>
+        <v>20.706938000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>2193.440000</v>
+        <v>2193.44</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1749.560000</v>
+        <v>-1749.56</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>74370.706269</v>
+        <v>74370.706269000002</v>
       </c>
       <c r="B23" s="1">
-        <v>20.658530</v>
+        <v>20.658529999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1148.390000</v>
+        <v>1148.3900000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-252.744000</v>
+        <v>-252.744</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>74381.184255</v>
       </c>
       <c r="G23" s="1">
-        <v>20.661440</v>
+        <v>20.661439999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>1169.590000</v>
+        <v>1169.5899999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-213.383000</v>
+        <v>-213.38300000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>74391.858689</v>
+        <v>74391.858689000001</v>
       </c>
       <c r="L23" s="1">
-        <v>20.664405</v>
+        <v>20.664404999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>1198.110000</v>
+        <v>1198.1099999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-150.125000</v>
+        <v>-150.125</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>74402.160068</v>
+        <v>74402.160067999997</v>
       </c>
       <c r="Q23" s="1">
-        <v>20.667267</v>
+        <v>20.667266999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>1206.620000</v>
+        <v>1206.6199999999999</v>
       </c>
       <c r="S23" s="1">
-        <v>-128.541000</v>
+        <v>-128.541</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>74412.152007</v>
+        <v>74412.152006999997</v>
       </c>
       <c r="V23" s="1">
-        <v>20.670042</v>
+        <v>20.670041999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>1214.600000</v>
+        <v>1214.5999999999999</v>
       </c>
       <c r="X23" s="1">
-        <v>-108.029000</v>
+        <v>-108.029</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>74422.385928</v>
+        <v>74422.385928000003</v>
       </c>
       <c r="AA23" s="1">
-        <v>20.672885</v>
+        <v>20.672885000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>1222.500000</v>
+        <v>1222.5</v>
       </c>
       <c r="AC23" s="1">
-        <v>-91.348500</v>
+        <v>-91.348500000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>74432.501339</v>
+        <v>74432.501338999995</v>
       </c>
       <c r="AF23" s="1">
-        <v>20.675695</v>
+        <v>20.675695000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1227.370000</v>
+        <v>1227.3699999999999</v>
       </c>
       <c r="AH23" s="1">
-        <v>-86.747200</v>
+        <v>-86.747200000000007</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>74443.060669</v>
+        <v>74443.060668999999</v>
       </c>
       <c r="AK23" s="1">
         <v>20.678628</v>
       </c>
       <c r="AL23" s="1">
-        <v>1234.790000</v>
+        <v>1234.79</v>
       </c>
       <c r="AM23" s="1">
-        <v>-90.115200</v>
+        <v>-90.115200000000002</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>74454.066398</v>
+        <v>74454.066397999995</v>
       </c>
       <c r="AP23" s="1">
-        <v>20.681685</v>
+        <v>20.681685000000002</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1242.840000</v>
+        <v>1242.8399999999999</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.031000</v>
+        <v>-102.03100000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>74465.141072</v>
+        <v>74465.141071999999</v>
       </c>
       <c r="AU23" s="1">
-        <v>20.684761</v>
+        <v>20.684761000000002</v>
       </c>
       <c r="AV23" s="1">
-        <v>1252.930000</v>
+        <v>1252.93</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.389000</v>
+        <v>-121.389</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>74476.084839</v>
+        <v>74476.084839000003</v>
       </c>
       <c r="AZ23" s="1">
         <v>20.687801</v>
       </c>
       <c r="BA23" s="1">
-        <v>1261.430000</v>
+        <v>1261.43</v>
       </c>
       <c r="BB23" s="1">
-        <v>-138.957000</v>
+        <v>-138.95699999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>74487.519573</v>
+        <v>74487.519572999998</v>
       </c>
       <c r="BE23" s="1">
-        <v>20.690978</v>
+        <v>20.690978000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1301.910000</v>
+        <v>1301.9100000000001</v>
       </c>
       <c r="BG23" s="1">
-        <v>-221.191000</v>
+        <v>-221.191</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>74499.060020</v>
+        <v>74499.060020000004</v>
       </c>
       <c r="BJ23" s="1">
-        <v>20.694183</v>
+        <v>20.694182999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1372.490000</v>
+        <v>1372.49</v>
       </c>
       <c r="BL23" s="1">
-        <v>-357.957000</v>
+        <v>-357.95699999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>74509.937781</v>
+        <v>74509.937781000001</v>
       </c>
       <c r="BO23" s="1">
         <v>20.697205</v>
       </c>
       <c r="BP23" s="1">
-        <v>1488.600000</v>
+        <v>1488.6</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-579.589000</v>
+        <v>-579.58900000000006</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>74521.178583</v>
+        <v>74521.178583000001</v>
       </c>
       <c r="BT23" s="1">
-        <v>20.700327</v>
+        <v>20.700327000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1622.890000</v>
+        <v>1622.89</v>
       </c>
       <c r="BV23" s="1">
-        <v>-828.743000</v>
+        <v>-828.74300000000005</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>74532.477447</v>
+        <v>74532.477446999997</v>
       </c>
       <c r="BY23" s="1">
-        <v>20.703466</v>
+        <v>20.703465999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1776.130000</v>
+        <v>1776.13</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1098.080000</v>
+        <v>-1098.08</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>74545.533638</v>
+        <v>74545.533637999994</v>
       </c>
       <c r="CD23" s="1">
         <v>20.707093</v>
       </c>
       <c r="CE23" s="1">
-        <v>2194.220000</v>
+        <v>2194.2199999999998</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1748.260000</v>
+        <v>-1748.26</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>74371.375373</v>
+        <v>74371.375373000003</v>
       </c>
       <c r="B24" s="1">
-        <v>20.658715</v>
+        <v>20.658715000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>1148.820000</v>
+        <v>1148.82</v>
       </c>
       <c r="D24" s="1">
-        <v>-252.639000</v>
+        <v>-252.63900000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>74381.849888</v>
+        <v>74381.849887999997</v>
       </c>
       <c r="G24" s="1">
-        <v>20.661625</v>
+        <v>20.661625000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>1170.080000</v>
+        <v>1170.08</v>
       </c>
       <c r="I24" s="1">
-        <v>-212.706000</v>
+        <v>-212.70599999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>74392.236114</v>
+        <v>74392.236113999999</v>
       </c>
       <c r="L24" s="1">
-        <v>20.664510</v>
+        <v>20.66451</v>
       </c>
       <c r="M24" s="1">
-        <v>1198.380000</v>
+        <v>1198.3800000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-150.246000</v>
+        <v>-150.24600000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>74402.508758</v>
+        <v>74402.508757999996</v>
       </c>
       <c r="Q24" s="1">
-        <v>20.667364</v>
+        <v>20.667363999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1206.610000</v>
+        <v>1206.6099999999999</v>
       </c>
       <c r="S24" s="1">
-        <v>-128.645000</v>
+        <v>-128.64500000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>74412.493222</v>
+        <v>74412.493222000005</v>
       </c>
       <c r="V24" s="1">
         <v>20.670137</v>
       </c>
       <c r="W24" s="1">
-        <v>1214.310000</v>
+        <v>1214.31</v>
       </c>
       <c r="X24" s="1">
-        <v>-108.197000</v>
+        <v>-108.197</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>74422.736105</v>
+        <v>74422.736105000004</v>
       </c>
       <c r="AA24" s="1">
-        <v>20.672982</v>
+        <v>20.672982000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>1222.430000</v>
+        <v>1222.43</v>
       </c>
       <c r="AC24" s="1">
-        <v>-91.280400</v>
+        <v>-91.2804</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>74433.038010</v>
+        <v>74433.038010000004</v>
       </c>
       <c r="AF24" s="1">
-        <v>20.675844</v>
+        <v>20.675844000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1227.440000</v>
+        <v>1227.44</v>
       </c>
       <c r="AH24" s="1">
-        <v>-86.815300</v>
+        <v>-86.815299999999993</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>74443.489213</v>
+        <v>74443.489212999993</v>
       </c>
       <c r="AK24" s="1">
-        <v>20.678747</v>
+        <v>20.678747000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>1234.800000</v>
+        <v>1234.8</v>
       </c>
       <c r="AM24" s="1">
-        <v>-90.095400</v>
+        <v>-90.095399999999998</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>74454.351102</v>
+        <v>74454.351102000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>20.681764</v>
+        <v>20.681764000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1242.860000</v>
+        <v>1242.8599999999999</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.046000</v>
+        <v>-102.04600000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>74465.406434</v>
+        <v>74465.406434000004</v>
       </c>
       <c r="AU24" s="1">
         <v>20.684835</v>
       </c>
       <c r="AV24" s="1">
-        <v>1252.910000</v>
+        <v>1252.9100000000001</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.389000</v>
+        <v>-121.389</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>74476.444434</v>
+        <v>74476.444434000005</v>
       </c>
       <c r="AZ24" s="1">
         <v>20.687901</v>
       </c>
       <c r="BA24" s="1">
-        <v>1261.430000</v>
+        <v>1261.43</v>
       </c>
       <c r="BB24" s="1">
-        <v>-138.931000</v>
+        <v>-138.93100000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>74487.878707</v>
+        <v>74487.878706999996</v>
       </c>
       <c r="BE24" s="1">
         <v>20.691077</v>
       </c>
       <c r="BF24" s="1">
-        <v>1301.900000</v>
+        <v>1301.9000000000001</v>
       </c>
       <c r="BG24" s="1">
-        <v>-221.206000</v>
+        <v>-221.20599999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>74499.810434</v>
+        <v>74499.810433999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>20.694392</v>
+        <v>20.694392000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1372.430000</v>
+        <v>1372.43</v>
       </c>
       <c r="BL24" s="1">
-        <v>-357.942000</v>
+        <v>-357.94200000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>74510.366788</v>
+        <v>74510.366787999999</v>
       </c>
       <c r="BO24" s="1">
-        <v>20.697324</v>
+        <v>20.697323999999998</v>
       </c>
       <c r="BP24" s="1">
-        <v>1488.530000</v>
+        <v>1488.53</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-579.578000</v>
+        <v>-579.57799999999997</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>74521.596246</v>
+        <v>74521.596246000001</v>
       </c>
       <c r="BT24" s="1">
         <v>20.700443</v>
       </c>
       <c r="BU24" s="1">
-        <v>1622.960000</v>
+        <v>1622.96</v>
       </c>
       <c r="BV24" s="1">
-        <v>-828.627000</v>
+        <v>-828.62699999999995</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>74532.907478</v>
+        <v>74532.907477999994</v>
       </c>
       <c r="BY24" s="1">
         <v>20.703585</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1776.130000</v>
+        <v>1776.13</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1098.140000</v>
+        <v>-1098.1400000000001</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>74546.063893</v>
+        <v>74546.063892999999</v>
       </c>
       <c r="CD24" s="1">
-        <v>20.707240</v>
+        <v>20.707239999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>2194.240000</v>
+        <v>2194.2399999999998</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1750.200000</v>
+        <v>-1750.2</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>74371.730539</v>
+        <v>74371.730538999996</v>
       </c>
       <c r="B25" s="1">
         <v>20.658814</v>
       </c>
       <c r="C25" s="1">
-        <v>1148.380000</v>
+        <v>1148.3800000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>-252.843000</v>
+        <v>-252.84299999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>74382.219903</v>
+        <v>74382.219903000005</v>
       </c>
       <c r="G25" s="1">
         <v>20.661728</v>
       </c>
       <c r="H25" s="1">
-        <v>1170.140000</v>
+        <v>1170.1400000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-213.037000</v>
+        <v>-213.03700000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>74392.583809</v>
+        <v>74392.583809000003</v>
       </c>
       <c r="L25" s="1">
         <v>20.664607</v>
       </c>
       <c r="M25" s="1">
-        <v>1198.260000</v>
+        <v>1198.26</v>
       </c>
       <c r="N25" s="1">
-        <v>-150.005000</v>
+        <v>-150.005</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>74402.857938</v>
+        <v>74402.857938000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>20.667461</v>
+        <v>20.667460999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>1206.580000</v>
+        <v>1206.58</v>
       </c>
       <c r="S25" s="1">
-        <v>-128.629000</v>
+        <v>-128.62899999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>74412.840461</v>
@@ -6452,420 +6868,420 @@
         <v>20.670233</v>
       </c>
       <c r="W25" s="1">
-        <v>1214.450000</v>
+        <v>1214.45</v>
       </c>
       <c r="X25" s="1">
-        <v>-108.213000</v>
+        <v>-108.21299999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>74423.164152</v>
+        <v>74423.164151999998</v>
       </c>
       <c r="AA25" s="1">
-        <v>20.673101</v>
+        <v>20.673100999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>1222.380000</v>
+        <v>1222.3800000000001</v>
       </c>
       <c r="AC25" s="1">
-        <v>-91.159300</v>
+        <v>-91.159300000000002</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>74433.188300</v>
+        <v>74433.188299999994</v>
       </c>
       <c r="AF25" s="1">
-        <v>20.675886</v>
+        <v>20.675885999999998</v>
       </c>
       <c r="AG25" s="1">
-        <v>1227.400000</v>
+        <v>1227.4000000000001</v>
       </c>
       <c r="AH25" s="1">
-        <v>-86.755200</v>
+        <v>-86.755200000000002</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>74443.768493</v>
+        <v>74443.768492999996</v>
       </c>
       <c r="AK25" s="1">
         <v>20.678825</v>
       </c>
       <c r="AL25" s="1">
-        <v>1234.770000</v>
+        <v>1234.77</v>
       </c>
       <c r="AM25" s="1">
-        <v>-90.089000</v>
+        <v>-90.088999999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>74454.715662</v>
+        <v>74454.715662000002</v>
       </c>
       <c r="AP25" s="1">
-        <v>20.681865</v>
+        <v>20.681864999999998</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1242.850000</v>
+        <v>1242.8499999999999</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.023000</v>
+        <v>-102.023</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>74465.768511</v>
+        <v>74465.768511000002</v>
       </c>
       <c r="AU25" s="1">
         <v>20.684936</v>
       </c>
       <c r="AV25" s="1">
-        <v>1252.920000</v>
+        <v>1252.92</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.412000</v>
+        <v>-121.41200000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>74476.803508</v>
+        <v>74476.803507999997</v>
       </c>
       <c r="AZ25" s="1">
         <v>20.688001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1261.430000</v>
+        <v>1261.43</v>
       </c>
       <c r="BB25" s="1">
-        <v>-138.917000</v>
+        <v>-138.917</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>74488.599890</v>
+        <v>74488.599889999998</v>
       </c>
       <c r="BE25" s="1">
-        <v>20.691278</v>
+        <v>20.691278000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1301.910000</v>
+        <v>1301.9100000000001</v>
       </c>
       <c r="BG25" s="1">
-        <v>-221.199000</v>
+        <v>-221.19900000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>74500.188385</v>
+        <v>74500.188385000001</v>
       </c>
       <c r="BJ25" s="1">
-        <v>20.694497</v>
+        <v>20.694496999999998</v>
       </c>
       <c r="BK25" s="1">
-        <v>1372.420000</v>
+        <v>1372.42</v>
       </c>
       <c r="BL25" s="1">
-        <v>-357.961000</v>
+        <v>-357.96100000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>74510.753173</v>
+        <v>74510.753173000005</v>
       </c>
       <c r="BO25" s="1">
-        <v>20.697431</v>
+        <v>20.697431000000002</v>
       </c>
       <c r="BP25" s="1">
-        <v>1488.560000</v>
+        <v>1488.56</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-579.579000</v>
+        <v>-579.57899999999995</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>74522.023797</v>
+        <v>74522.023797000002</v>
       </c>
       <c r="BT25" s="1">
-        <v>20.700562</v>
+        <v>20.700562000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1622.920000</v>
+        <v>1622.92</v>
       </c>
       <c r="BV25" s="1">
-        <v>-828.413000</v>
+        <v>-828.41300000000001</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>74533.637590</v>
+        <v>74533.637589999998</v>
       </c>
       <c r="BY25" s="1">
-        <v>20.703788</v>
+        <v>20.703787999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1776.220000</v>
+        <v>1776.22</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1098.430000</v>
+        <v>-1098.43</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>74546.900149</v>
+        <v>74546.900148999994</v>
       </c>
       <c r="CD25" s="1">
-        <v>20.707472</v>
+        <v>20.707471999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>2196.340000</v>
+        <v>2196.34</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1749.660000</v>
+        <v>-1749.66</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>74372.071260</v>
+        <v>74372.071259999997</v>
       </c>
       <c r="B26" s="1">
-        <v>20.658909</v>
+        <v>20.658909000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>1148.700000</v>
+        <v>1148.7</v>
       </c>
       <c r="D26" s="1">
-        <v>-252.819000</v>
+        <v>-252.81899999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>74382.563630</v>
+        <v>74382.563630000004</v>
       </c>
       <c r="G26" s="1">
-        <v>20.661823</v>
+        <v>20.661822999999998</v>
       </c>
       <c r="H26" s="1">
-        <v>1170.280000</v>
+        <v>1170.28</v>
       </c>
       <c r="I26" s="1">
-        <v>-213.100000</v>
+        <v>-213.1</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>74392.933489</v>
+        <v>74392.933489000003</v>
       </c>
       <c r="L26" s="1">
         <v>20.664704</v>
       </c>
       <c r="M26" s="1">
-        <v>1197.960000</v>
+        <v>1197.96</v>
       </c>
       <c r="N26" s="1">
-        <v>-150.099000</v>
+        <v>-150.09899999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>74403.304375</v>
+        <v>74403.304375000007</v>
       </c>
       <c r="Q26" s="1">
-        <v>20.667585</v>
+        <v>20.667584999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>1206.510000</v>
+        <v>1206.51</v>
       </c>
       <c r="S26" s="1">
-        <v>-128.703000</v>
+        <v>-128.703</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>74413.264997</v>
+        <v>74413.264997000006</v>
       </c>
       <c r="V26" s="1">
         <v>20.670351</v>
       </c>
       <c r="W26" s="1">
-        <v>1214.370000</v>
+        <v>1214.3699999999999</v>
       </c>
       <c r="X26" s="1">
-        <v>-108.141000</v>
+        <v>-108.14100000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>74423.433016</v>
+        <v>74423.433015999995</v>
       </c>
       <c r="AA26" s="1">
-        <v>20.673176</v>
+        <v>20.673176000000002</v>
       </c>
       <c r="AB26" s="1">
-        <v>1222.440000</v>
+        <v>1222.44</v>
       </c>
       <c r="AC26" s="1">
-        <v>-91.325400</v>
+        <v>-91.325400000000002</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>74433.530401</v>
+        <v>74433.530400999996</v>
       </c>
       <c r="AF26" s="1">
         <v>20.675981</v>
       </c>
       <c r="AG26" s="1">
-        <v>1227.420000</v>
+        <v>1227.42</v>
       </c>
       <c r="AH26" s="1">
-        <v>-86.801100</v>
+        <v>-86.801100000000005</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>74444.115692</v>
+        <v>74444.115692000007</v>
       </c>
       <c r="AK26" s="1">
-        <v>20.678921</v>
+        <v>20.678920999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>1234.810000</v>
+        <v>1234.81</v>
       </c>
       <c r="AM26" s="1">
-        <v>-90.103500</v>
+        <v>-90.103499999999997</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>74455.075261</v>
+        <v>74455.075261000005</v>
       </c>
       <c r="AP26" s="1">
-        <v>20.681965</v>
+        <v>20.681965000000002</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1242.850000</v>
+        <v>1242.8499999999999</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.994000</v>
+        <v>-101.994</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>74466.503088</v>
+        <v>74466.503087999998</v>
       </c>
       <c r="AU26" s="1">
-        <v>20.685140</v>
+        <v>20.685140000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>1252.930000</v>
+        <v>1252.93</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.402000</v>
+        <v>-121.402</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>74477.525221</v>
+        <v>74477.525221000004</v>
       </c>
       <c r="AZ26" s="1">
-        <v>20.688201</v>
+        <v>20.688200999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1261.440000</v>
+        <v>1261.44</v>
       </c>
       <c r="BB26" s="1">
-        <v>-138.955000</v>
+        <v>-138.95500000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>74488.988225</v>
+        <v>74488.988224999994</v>
       </c>
       <c r="BE26" s="1">
-        <v>20.691386</v>
+        <v>20.691386000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1301.900000</v>
+        <v>1301.9000000000001</v>
       </c>
       <c r="BG26" s="1">
-        <v>-221.180000</v>
+        <v>-221.18</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>74500.564353</v>
+        <v>74500.564352999994</v>
       </c>
       <c r="BJ26" s="1">
-        <v>20.694601</v>
+        <v>20.694600999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1372.450000</v>
+        <v>1372.45</v>
       </c>
       <c r="BL26" s="1">
-        <v>-357.933000</v>
+        <v>-357.93299999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>74511.173611</v>
+        <v>74511.173611000006</v>
       </c>
       <c r="BO26" s="1">
-        <v>20.697548</v>
+        <v>20.697548000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1488.620000</v>
+        <v>1488.62</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-579.612000</v>
+        <v>-579.61199999999997</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>74522.753380</v>
+        <v>74522.753379999995</v>
       </c>
       <c r="BT26" s="1">
-        <v>20.700765</v>
+        <v>20.700765000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1622.680000</v>
+        <v>1622.68</v>
       </c>
       <c r="BV26" s="1">
-        <v>-828.186000</v>
+        <v>-828.18600000000004</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>74533.778949</v>
@@ -6874,30 +7290,31 @@
         <v>20.703827</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1776.160000</v>
+        <v>1776.16</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1098.290000</v>
+        <v>-1098.29</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>74547.098516</v>
+        <v>74547.098515999998</v>
       </c>
       <c r="CD26" s="1">
-        <v>20.707527</v>
+        <v>20.707526999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>2195.360000</v>
+        <v>2195.36</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1747.730000</v>
+        <v>-1747.73</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>